--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
@@ -342,7 +342,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -350,23 +350,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -374,10 +375,10 @@
   <cols>
     <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.953125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.6875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -708,7 +709,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>40</v>
@@ -1148,7 +1149,7 @@
         <v>44</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>85</v>
@@ -3343,273 +3344,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66F32681-AFF9-42A7-BA9D-FF5C22AE08B5}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EFAA4E8-6526-429D-8D5B-BC7FC3DCE677}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B2D8500-23FF-44C0-94C5-BC2D62B2CE2C}"/>
 </file>
--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="101">
   <si>
     <t>Sezione</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Dati generali</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
   </si>
   <si>
     <t>Data Evento</t>
@@ -367,7 +373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -532,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -546,16 +552,16 @@
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -566,13 +572,13 @@
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>28</v>
@@ -592,7 +598,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>30</v>
@@ -612,7 +618,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
@@ -632,7 +638,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>34</v>
@@ -652,7 +658,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>36</v>
@@ -663,19 +669,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -683,16 +689,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>43</v>
@@ -703,16 +709,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>45</v>
@@ -723,16 +729,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>47</v>
@@ -743,7 +749,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>48</v>
@@ -752,7 +758,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>49</v>
@@ -763,7 +769,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>50</v>
@@ -772,7 +778,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>51</v>
@@ -783,16 +789,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>53</v>
@@ -803,16 +809,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>55</v>
@@ -823,16 +829,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>57</v>
@@ -843,16 +849,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>59</v>
@@ -863,16 +869,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>61</v>
@@ -883,7 +889,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>62</v>
@@ -892,7 +898,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>63</v>
@@ -903,7 +909,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>64</v>
@@ -912,7 +918,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>65</v>
@@ -923,7 +929,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>66</v>
@@ -932,7 +938,7 @@
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>67</v>
@@ -943,16 +949,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>69</v>
@@ -963,16 +969,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>71</v>
@@ -983,16 +989,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>73</v>
@@ -1003,16 +1009,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>75</v>
@@ -1023,16 +1029,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>77</v>
@@ -1043,16 +1049,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>79</v>
@@ -1063,7 +1069,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>80</v>
@@ -1072,7 +1078,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>81</v>
@@ -1083,7 +1089,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>82</v>
@@ -1092,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>83</v>
@@ -1103,19 +1109,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1123,16 +1129,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>43</v>
@@ -1143,16 +1149,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>45</v>
@@ -1163,16 +1169,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>47</v>
@@ -1183,7 +1189,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>48</v>
@@ -1192,7 +1198,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>49</v>
@@ -1203,7 +1209,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>50</v>
@@ -1212,7 +1218,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>51</v>
@@ -1223,16 +1229,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>53</v>
@@ -1243,16 +1249,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>55</v>
@@ -1263,16 +1269,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>57</v>
@@ -1283,16 +1289,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>59</v>
@@ -1303,16 +1309,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>61</v>
@@ -1323,7 +1329,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>62</v>
@@ -1332,7 +1338,7 @@
         <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>63</v>
@@ -1343,7 +1349,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>64</v>
@@ -1352,7 +1358,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>65</v>
@@ -1363,7 +1369,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>66</v>
@@ -1372,7 +1378,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>67</v>
@@ -1383,16 +1389,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>69</v>
@@ -1403,16 +1409,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>71</v>
@@ -1423,16 +1429,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>73</v>
@@ -1443,16 +1449,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>75</v>
@@ -1463,16 +1469,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>77</v>
@@ -1483,16 +1489,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>79</v>
@@ -1503,7 +1509,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>80</v>
@@ -1512,7 +1518,7 @@
         <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>81</v>
@@ -1523,7 +1529,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>82</v>
@@ -1532,7 +1538,7 @@
         <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>83</v>
@@ -1546,16 +1552,16 @@
         <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1563,16 +1569,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>43</v>
@@ -1583,16 +1589,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>45</v>
@@ -1603,16 +1609,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>47</v>
@@ -1623,16 +1629,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>49</v>
@@ -1643,16 +1649,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>51</v>
@@ -1663,16 +1669,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>53</v>
@@ -1683,16 +1689,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>55</v>
@@ -1703,16 +1709,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>57</v>
@@ -1723,16 +1729,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>59</v>
@@ -1743,16 +1749,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>61</v>
@@ -1763,16 +1769,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>63</v>
@@ -1783,16 +1789,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>65</v>
@@ -1803,16 +1809,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>67</v>
@@ -1823,16 +1829,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>69</v>
@@ -1843,16 +1849,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>71</v>
@@ -1863,16 +1869,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>73</v>
@@ -1883,16 +1889,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>75</v>
@@ -1903,16 +1909,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>77</v>
@@ -1923,16 +1929,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>79</v>
@@ -1943,16 +1949,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>81</v>
@@ -1963,16 +1969,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>83</v>
@@ -1986,16 +1992,16 @@
         <v>88</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2003,16 +2009,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>43</v>
@@ -2023,16 +2029,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>45</v>
@@ -2043,16 +2049,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>47</v>
@@ -2063,16 +2069,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>49</v>
@@ -2083,16 +2089,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>51</v>
@@ -2103,16 +2109,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>53</v>
@@ -2123,16 +2129,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>55</v>
@@ -2143,16 +2149,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>57</v>
@@ -2163,16 +2169,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>59</v>
@@ -2183,16 +2189,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>61</v>
@@ -2203,16 +2209,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>63</v>
@@ -2223,16 +2229,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>65</v>
@@ -2243,16 +2249,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>67</v>
@@ -2263,16 +2269,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>69</v>
@@ -2283,16 +2289,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>71</v>
@@ -2303,16 +2309,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>73</v>
@@ -2323,16 +2329,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>75</v>
@@ -2343,16 +2349,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>77</v>
@@ -2363,16 +2369,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>79</v>
@@ -2383,16 +2389,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>81</v>
@@ -2403,16 +2409,16 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>83</v>
@@ -2426,16 +2432,16 @@
         <v>90</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>9</v>
@@ -2443,16 +2449,16 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>43</v>
@@ -2463,16 +2469,16 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>45</v>
@@ -2483,16 +2489,16 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>47</v>
@@ -2503,16 +2509,16 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>49</v>
@@ -2523,16 +2529,16 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>51</v>
@@ -2543,16 +2549,16 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>53</v>
@@ -2563,16 +2569,16 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>55</v>
@@ -2583,16 +2589,16 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>57</v>
@@ -2603,16 +2609,16 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>59</v>
@@ -2623,16 +2629,16 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>61</v>
@@ -2643,16 +2649,16 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>63</v>
@@ -2663,16 +2669,16 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>65</v>
@@ -2683,16 +2689,16 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>67</v>
@@ -2703,16 +2709,16 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>69</v>
@@ -2723,16 +2729,16 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>71</v>
@@ -2743,16 +2749,16 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>73</v>
@@ -2763,16 +2769,16 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>75</v>
@@ -2783,16 +2789,16 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>77</v>
@@ -2803,16 +2809,16 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>79</v>
@@ -2823,16 +2829,16 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>81</v>
@@ -2843,16 +2849,16 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>83</v>
@@ -2866,16 +2872,16 @@
         <v>92</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>9</v>
@@ -2883,16 +2889,16 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>43</v>
@@ -2903,16 +2909,16 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>45</v>
@@ -2923,16 +2929,16 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>47</v>
@@ -2943,16 +2949,16 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>49</v>
@@ -2963,16 +2969,16 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>51</v>
@@ -2983,16 +2989,16 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>53</v>
@@ -3003,16 +3009,16 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>55</v>
@@ -3023,16 +3029,16 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>57</v>
@@ -3043,16 +3049,16 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>59</v>
@@ -3063,16 +3069,16 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>61</v>
@@ -3083,16 +3089,16 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>63</v>
@@ -3103,16 +3109,16 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>65</v>
@@ -3123,16 +3129,16 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>67</v>
@@ -3143,16 +3149,16 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>69</v>
@@ -3163,16 +3169,16 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>71</v>
@@ -3183,16 +3189,16 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>73</v>
@@ -3203,16 +3209,16 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>75</v>
@@ -3223,16 +3229,16 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>77</v>
@@ -3243,16 +3249,16 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>79</v>
@@ -3263,16 +3269,16 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>81</v>
@@ -3283,16 +3289,16 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>83</v>
@@ -3306,16 +3312,16 @@
         <v>94</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>9</v>
@@ -3326,18 +3332,38 @@
         <v>96</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E148" s="2" t="s">
+      <c r="F148" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F148" s="2" t="s">
+      <c r="B149" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="109">
   <si>
     <t>Sezione</t>
   </si>
@@ -80,9 +80,36 @@
     <t>Data decorrenza</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>dataDecorrenza</t>
   </si>
   <si>
+    <t>Ora decorrenza</t>
+  </si>
+  <si>
+    <t>oraDecorrenza</t>
+  </si>
+  <si>
+    <t>Minuto decorrenza</t>
+  </si>
+  <si>
+    <t>minutoDecorrenza</t>
+  </si>
+  <si>
+    <t>Motivo recupero</t>
+  </si>
+  <si>
+    <t>motivoRecupero</t>
+  </si>
+  <si>
+    <t>Descrizione recupero</t>
+  </si>
+  <si>
+    <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
     <t>Data Evento</t>
   </si>
   <si>
@@ -137,9 +164,6 @@
     <t>Cognome</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>evento.intestatari[0]</t>
   </si>
   <si>
@@ -266,7 +290,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>flag firmatario</t>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>
@@ -373,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G149"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -383,7 +407,7 @@
     <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.953125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -535,13 +559,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -552,13 +576,13 @@
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
@@ -575,13 +599,13 @@
         <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -592,16 +616,16 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -612,16 +636,16 @@
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -632,13 +656,13 @@
         <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>34</v>
@@ -658,10 +682,10 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -672,16 +696,16 @@
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -689,19 +713,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -709,19 +733,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -729,19 +753,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -749,19 +773,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -769,16 +793,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>51</v>
@@ -789,7 +813,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>52</v>
@@ -798,7 +822,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>53</v>
@@ -809,16 +833,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>55</v>
@@ -829,16 +853,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>57</v>
@@ -849,16 +873,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>59</v>
@@ -869,16 +893,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>61</v>
@@ -889,16 +913,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>63</v>
@@ -909,16 +933,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>65</v>
@@ -929,16 +953,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>67</v>
@@ -949,16 +973,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>69</v>
@@ -969,16 +993,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>71</v>
@@ -989,16 +1013,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>73</v>
@@ -1009,16 +1033,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>75</v>
@@ -1029,16 +1053,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>77</v>
@@ -1049,16 +1073,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>79</v>
@@ -1069,16 +1093,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>81</v>
@@ -1089,16 +1113,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>83</v>
@@ -1109,16 +1133,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>85</v>
@@ -1129,19 +1153,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1149,19 +1173,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1169,19 +1193,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1189,19 +1213,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1209,16 +1233,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>51</v>
@@ -1229,7 +1253,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>52</v>
@@ -1238,7 +1262,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>53</v>
@@ -1249,16 +1273,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>55</v>
@@ -1269,16 +1293,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>57</v>
@@ -1289,16 +1313,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>59</v>
@@ -1309,16 +1333,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>61</v>
@@ -1329,16 +1353,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>63</v>
@@ -1349,16 +1373,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>65</v>
@@ -1369,16 +1393,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>67</v>
@@ -1389,16 +1413,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>69</v>
@@ -1409,16 +1433,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>71</v>
@@ -1429,16 +1453,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>73</v>
@@ -1449,16 +1473,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>75</v>
@@ -1469,16 +1493,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>77</v>
@@ -1489,16 +1513,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>79</v>
@@ -1509,16 +1533,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>81</v>
@@ -1529,16 +1553,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>83</v>
@@ -1549,16 +1573,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>85</v>
@@ -1569,19 +1593,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1589,19 +1613,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1609,19 +1633,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1629,19 +1653,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1649,16 +1673,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>51</v>
@@ -1669,16 +1693,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>53</v>
@@ -1689,16 +1713,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>55</v>
@@ -1709,16 +1733,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>57</v>
@@ -1729,16 +1753,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>59</v>
@@ -1749,16 +1773,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>61</v>
@@ -1769,16 +1793,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>63</v>
@@ -1789,16 +1813,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>65</v>
@@ -1809,16 +1833,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>67</v>
@@ -1829,16 +1853,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>69</v>
@@ -1849,16 +1873,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>71</v>
@@ -1869,16 +1893,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>73</v>
@@ -1889,16 +1913,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>75</v>
@@ -1909,16 +1933,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>77</v>
@@ -1929,16 +1953,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>79</v>
@@ -1949,16 +1973,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>81</v>
@@ -1969,16 +1993,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>83</v>
@@ -1989,16 +2013,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>85</v>
@@ -2009,19 +2033,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2029,19 +2053,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2049,19 +2073,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2069,19 +2093,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2089,16 +2113,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>51</v>
@@ -2109,16 +2133,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>53</v>
@@ -2129,16 +2153,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>55</v>
@@ -2149,16 +2173,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>57</v>
@@ -2169,16 +2193,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>59</v>
@@ -2189,16 +2213,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>61</v>
@@ -2209,16 +2233,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>63</v>
@@ -2229,16 +2253,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>65</v>
@@ -2249,16 +2273,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>67</v>
@@ -2269,16 +2293,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>69</v>
@@ -2289,16 +2313,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>71</v>
@@ -2309,16 +2333,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>73</v>
@@ -2329,16 +2353,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>75</v>
@@ -2349,16 +2373,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>77</v>
@@ -2369,16 +2393,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>79</v>
@@ -2389,16 +2413,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>81</v>
@@ -2409,16 +2433,16 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>83</v>
@@ -2429,16 +2453,16 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>85</v>
@@ -2449,19 +2473,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>9</v>
@@ -2469,19 +2493,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>9</v>
@@ -2489,19 +2513,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>9</v>
@@ -2509,19 +2533,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C107" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>9</v>
@@ -2529,16 +2553,16 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>51</v>
@@ -2549,16 +2573,16 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>53</v>
@@ -2569,16 +2593,16 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>55</v>
@@ -2589,16 +2613,16 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>57</v>
@@ -2609,16 +2633,16 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>59</v>
@@ -2629,16 +2653,16 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>61</v>
@@ -2649,16 +2673,16 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>63</v>
@@ -2669,16 +2693,16 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>65</v>
@@ -2689,16 +2713,16 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>67</v>
@@ -2709,16 +2733,16 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>69</v>
@@ -2729,16 +2753,16 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>71</v>
@@ -2749,16 +2773,16 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>73</v>
@@ -2769,16 +2793,16 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>75</v>
@@ -2789,16 +2813,16 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>77</v>
@@ -2809,16 +2833,16 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>79</v>
@@ -2829,16 +2853,16 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>81</v>
@@ -2849,16 +2873,16 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>83</v>
@@ -2869,16 +2893,16 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>85</v>
@@ -2889,19 +2913,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>9</v>
@@ -2909,19 +2933,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>9</v>
@@ -2929,19 +2953,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>9</v>
@@ -2949,19 +2973,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>9</v>
@@ -2969,16 +2993,16 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>51</v>
@@ -2989,16 +3013,16 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>53</v>
@@ -3009,16 +3033,16 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>55</v>
@@ -3029,16 +3053,16 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>57</v>
@@ -3049,16 +3073,16 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>59</v>
@@ -3069,16 +3093,16 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>61</v>
@@ -3089,16 +3113,16 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>63</v>
@@ -3109,16 +3133,16 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>65</v>
@@ -3129,16 +3153,16 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>67</v>
@@ -3149,16 +3173,16 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>69</v>
@@ -3169,16 +3193,16 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>71</v>
@@ -3189,16 +3213,16 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>73</v>
@@ -3209,16 +3233,16 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>75</v>
@@ -3229,16 +3253,16 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>77</v>
@@ -3249,16 +3273,16 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>79</v>
@@ -3269,16 +3293,16 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>81</v>
@@ -3289,16 +3313,16 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>83</v>
@@ -3309,16 +3333,16 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>85</v>
@@ -3329,19 +3353,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>9</v>
@@ -3349,21 +3373,101 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C149" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F149" s="2" t="s">
+      <c r="D152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F153" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="112">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -119,24 +125,12 @@
     <t>dataEvento</t>
   </si>
   <si>
-    <t>Stato</t>
+    <t>Provincia</t>
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.luogoCelebrazione</t>
   </si>
   <si>
-    <t>idStato</t>
-  </si>
-  <si>
-    <t>Stato - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStato</t>
-  </si>
-  <si>
-    <t>Provincia</t>
-  </si>
-  <si>
     <t>idProvincia</t>
   </si>
   <si>
@@ -308,22 +302,37 @@
     <t>evento.datiEventoUnioneCivile.testimone1</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,1}</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
     <t>Testimone 2</t>
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.testimone2</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,2}</t>
+  </si>
+  <si>
     <t>Testimone 3</t>
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.testimone3</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,3}</t>
+  </si>
+  <si>
     <t>Testimone 4</t>
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.testimone4</t>
+  </si>
+  <si>
+    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,4}</t>
   </si>
   <si>
     <t>Composizione libera</t>
@@ -397,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -409,6 +418,7 @@
     <col min="4" max="4" width="45.953125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="49.9375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -430,25 +440,31 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -470,1165 +486,1342 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -1636,19 +1829,22 @@
         <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="63">
@@ -1656,459 +1852,528 @@
         <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="86">
@@ -2116,19 +2381,22 @@
         <v>98</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="87">
@@ -2136,19 +2404,22 @@
         <v>98</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="88">
@@ -2156,19 +2427,22 @@
         <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="89">
@@ -2176,19 +2450,22 @@
         <v>98</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="90">
@@ -2196,19 +2473,22 @@
         <v>98</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="91">
@@ -2216,19 +2496,22 @@
         <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="92">
@@ -2236,19 +2519,22 @@
         <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="93">
@@ -2256,19 +2542,22 @@
         <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="94">
@@ -2276,19 +2565,22 @@
         <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="95">
@@ -2296,19 +2588,22 @@
         <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="96">
@@ -2316,19 +2611,22 @@
         <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="97">
@@ -2336,19 +2634,22 @@
         <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="98">
@@ -2356,19 +2657,22 @@
         <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="99">
@@ -2376,19 +2680,22 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="100">
@@ -2396,19 +2703,22 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="101">
@@ -2416,19 +2726,22 @@
         <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="102">
@@ -2436,19 +2749,22 @@
         <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="103">
@@ -2456,19 +2772,22 @@
         <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="104">
@@ -2476,19 +2795,22 @@
         <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="105">
@@ -2496,979 +2818,1080 @@
         <v>98</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Formula</t>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="113">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,19 +32,22 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>999.4.1</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>999.4.1</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -487,3411 +490,3411 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
@@ -305,7 +305,7 @@
     <t>evento.datiEventoUnioneCivile.testimone1</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,1}</t>
+    <t>evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,1</t>
   </si>
   <si>
     <t>flag firmatario</t>
@@ -317,7 +317,7 @@
     <t>evento.datiEventoUnioneCivile.testimone2</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,2}</t>
+    <t>evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,2</t>
   </si>
   <si>
     <t>Testimone 3</t>
@@ -326,7 +326,7 @@
     <t>evento.datiEventoUnioneCivile.testimone3</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,3}</t>
+    <t>evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,3</t>
   </si>
   <si>
     <t>Testimone 4</t>
@@ -335,7 +335,7 @@
     <t>evento.datiEventoUnioneCivile.testimone4</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,4}</t>
+    <t>evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,4</t>
   </si>
   <si>
     <t>Composizione libera</t>
@@ -421,7 +421,7 @@
     <col min="4" max="4" width="45.953125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="49.9375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="48.5546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="120">
   <si>
     <t>Sezione</t>
   </si>
@@ -308,9 +308,6 @@
     <t>evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,1</t>
   </si>
   <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
     <t>Testimone 2</t>
   </si>
   <si>
@@ -351,6 +348,30 @@
   </si>
   <si>
     <t>numeroTestimoni</t>
+  </si>
+  <si>
+    <t>Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>Tipo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazione</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>Dichiara come non certificabile</t>
+  </si>
+  <si>
+    <t>flagAnnotazioneNonCertificabile</t>
+  </si>
+  <si>
+    <t>Testo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
   </si>
 </sst>
 </file>
@@ -409,17 +430,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.58203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.953125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="48.5546875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2315,10 +2336,10 @@
         <v>95</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>96</v>
@@ -2335,7 +2356,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>48</v>
@@ -2344,7 +2365,7 @@
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>50</v>
@@ -2353,12 +2374,12 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>51</v>
@@ -2367,7 +2388,7 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>52</v>
@@ -2376,12 +2397,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>53</v>
@@ -2390,7 +2411,7 @@
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>54</v>
@@ -2399,12 +2420,12 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>55</v>
@@ -2413,7 +2434,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>56</v>
@@ -2422,12 +2443,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>57</v>
@@ -2436,7 +2457,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>58</v>
@@ -2445,12 +2466,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>59</v>
@@ -2459,7 +2480,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>60</v>
@@ -2468,12 +2489,12 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>61</v>
@@ -2482,7 +2503,7 @@
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>62</v>
@@ -2491,12 +2512,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>63</v>
@@ -2505,7 +2526,7 @@
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>64</v>
@@ -2514,12 +2535,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>65</v>
@@ -2528,7 +2549,7 @@
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>66</v>
@@ -2537,12 +2558,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>67</v>
@@ -2551,7 +2572,7 @@
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>68</v>
@@ -2560,12 +2581,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>69</v>
@@ -2574,7 +2595,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>70</v>
@@ -2583,12 +2604,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>71</v>
@@ -2597,7 +2618,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>72</v>
@@ -2606,12 +2627,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>73</v>
@@ -2620,7 +2641,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>74</v>
@@ -2629,12 +2650,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>75</v>
@@ -2643,7 +2664,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>76</v>
@@ -2652,12 +2673,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>77</v>
@@ -2666,7 +2687,7 @@
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>78</v>
@@ -2675,12 +2696,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>79</v>
@@ -2689,7 +2710,7 @@
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>80</v>
@@ -2698,12 +2719,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>81</v>
@@ -2712,7 +2733,7 @@
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>82</v>
@@ -2721,12 +2742,12 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>83</v>
@@ -2735,7 +2756,7 @@
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>84</v>
@@ -2744,12 +2765,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>85</v>
@@ -2758,7 +2779,7 @@
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>86</v>
@@ -2767,12 +2788,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>87</v>
@@ -2781,7 +2802,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>88</v>
@@ -2790,12 +2811,12 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>89</v>
@@ -2804,7 +2825,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>90</v>
@@ -2813,21 +2834,21 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>92</v>
@@ -2836,12 +2857,12 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>48</v>
@@ -2850,7 +2871,7 @@
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>50</v>
@@ -2859,12 +2880,12 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>51</v>
@@ -2873,7 +2894,7 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>52</v>
@@ -2882,12 +2903,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>53</v>
@@ -2896,7 +2917,7 @@
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>54</v>
@@ -2905,12 +2926,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>55</v>
@@ -2919,7 +2940,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>56</v>
@@ -2928,12 +2949,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>57</v>
@@ -2942,7 +2963,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>58</v>
@@ -2951,12 +2972,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>59</v>
@@ -2965,7 +2986,7 @@
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>60</v>
@@ -2974,12 +2995,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>61</v>
@@ -2988,7 +3009,7 @@
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>62</v>
@@ -2997,12 +3018,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>63</v>
@@ -3011,7 +3032,7 @@
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>64</v>
@@ -3020,12 +3041,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>65</v>
@@ -3034,7 +3055,7 @@
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>66</v>
@@ -3043,12 +3064,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>67</v>
@@ -3057,7 +3078,7 @@
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>68</v>
@@ -3066,12 +3087,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>69</v>
@@ -3080,7 +3101,7 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>70</v>
@@ -3089,12 +3110,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>71</v>
@@ -3103,7 +3124,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>72</v>
@@ -3112,12 +3133,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>73</v>
@@ -3126,7 +3147,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>74</v>
@@ -3135,12 +3156,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>75</v>
@@ -3149,7 +3170,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>76</v>
@@ -3158,12 +3179,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>77</v>
@@ -3172,7 +3193,7 @@
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>78</v>
@@ -3181,12 +3202,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>79</v>
@@ -3195,7 +3216,7 @@
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>80</v>
@@ -3204,12 +3225,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>81</v>
@@ -3218,7 +3239,7 @@
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>82</v>
@@ -3227,12 +3248,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>83</v>
@@ -3241,7 +3262,7 @@
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>84</v>
@@ -3250,12 +3271,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>85</v>
@@ -3264,7 +3285,7 @@
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>86</v>
@@ -3273,12 +3294,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>87</v>
@@ -3287,7 +3308,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>88</v>
@@ -3296,12 +3317,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>89</v>
@@ -3310,7 +3331,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>90</v>
@@ -3319,21 +3340,21 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>92</v>
@@ -3342,12 +3363,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>48</v>
@@ -3356,7 +3377,7 @@
         <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>50</v>
@@ -3365,12 +3386,12 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>51</v>
@@ -3379,7 +3400,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>52</v>
@@ -3388,12 +3409,12 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>53</v>
@@ -3402,7 +3423,7 @@
         <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>54</v>
@@ -3411,12 +3432,12 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>55</v>
@@ -3425,7 +3446,7 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>56</v>
@@ -3434,12 +3455,12 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>57</v>
@@ -3448,7 +3469,7 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>58</v>
@@ -3457,12 +3478,12 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>59</v>
@@ -3471,7 +3492,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>60</v>
@@ -3480,12 +3501,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>61</v>
@@ -3494,7 +3515,7 @@
         <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>62</v>
@@ -3503,12 +3524,12 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>63</v>
@@ -3517,7 +3538,7 @@
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>64</v>
@@ -3526,12 +3547,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>65</v>
@@ -3540,7 +3561,7 @@
         <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>66</v>
@@ -3549,12 +3570,12 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>67</v>
@@ -3563,7 +3584,7 @@
         <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>68</v>
@@ -3572,12 +3593,12 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>69</v>
@@ -3586,7 +3607,7 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>70</v>
@@ -3595,12 +3616,12 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>71</v>
@@ -3609,7 +3630,7 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>72</v>
@@ -3618,12 +3639,12 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>73</v>
@@ -3632,7 +3653,7 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>74</v>
@@ -3641,12 +3662,12 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>75</v>
@@ -3655,7 +3676,7 @@
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>76</v>
@@ -3664,12 +3685,12 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>77</v>
@@ -3678,7 +3699,7 @@
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>78</v>
@@ -3687,12 +3708,12 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>79</v>
@@ -3701,7 +3722,7 @@
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>80</v>
@@ -3710,12 +3731,12 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>81</v>
@@ -3724,7 +3745,7 @@
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>82</v>
@@ -3733,12 +3754,12 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>83</v>
@@ -3747,7 +3768,7 @@
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>84</v>
@@ -3756,12 +3777,12 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>85</v>
@@ -3770,7 +3791,7 @@
         <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>86</v>
@@ -3779,12 +3800,12 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>87</v>
@@ -3793,7 +3814,7 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>88</v>
@@ -3802,12 +3823,12 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>89</v>
@@ -3816,7 +3837,7 @@
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>90</v>
@@ -3825,21 +3846,21 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>92</v>
@@ -3848,15 +3869,15 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
@@ -3865,7 +3886,7 @@
         <v>14</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -3876,10 +3897,10 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
@@ -3888,12 +3909,81 @@
         <v>36</v>
       </c>
       <c r="E151" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
+      <c r="B152" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="122">
   <si>
     <t>Sezione</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -430,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1074,7 +1080,7 @@
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>49</v>
@@ -1166,7 +1172,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>49</v>
@@ -1281,7 +1287,7 @@
         <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>49</v>
@@ -1327,7 +1333,7 @@
         <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>49</v>
@@ -1344,19 +1350,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1367,19 +1373,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1390,19 +1396,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1413,19 +1419,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1436,19 +1442,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1459,19 +1465,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1482,19 +1488,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1505,19 +1511,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1528,19 +1534,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1551,19 +1557,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1574,19 +1580,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1597,19 +1603,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1620,19 +1626,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1643,19 +1649,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1666,19 +1672,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1689,19 +1695,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1712,19 +1718,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1735,19 +1741,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1758,19 +1764,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1781,19 +1787,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1804,19 +1810,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1827,19 +1833,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1853,22 +1859,22 @@
         <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
@@ -1876,2114 +1882,2252 @@
         <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="E106" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
+      <c r="E107" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="E108" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
+      <c r="E109" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D128" s="2" t="s">
+      <c r="E128" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="E129" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="E130" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
+      <c r="E131" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="E132" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E150" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D154" s="2" t="s">
+      <c r="C159" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E154" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
+      <c r="B160" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
@@ -2161,7 +2161,7 @@
         <v>71</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>98</v>
@@ -2184,7 +2184,7 @@
         <v>73</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>98</v>
@@ -2690,7 +2690,7 @@
         <v>71</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>101</v>
@@ -2713,7 +2713,7 @@
         <v>73</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>101</v>
@@ -3219,7 +3219,7 @@
         <v>71</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>104</v>
@@ -3242,7 +3242,7 @@
         <v>73</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>104</v>
@@ -3748,7 +3748,7 @@
         <v>71</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>107</v>
@@ -3771,7 +3771,7 @@
         <v>73</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>107</v>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -297,6 +297,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Unito civilmente 2</t>
@@ -436,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1373,19 +1397,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C41" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1396,19 +1420,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1419,19 +1443,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1442,19 +1466,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1465,19 +1489,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1488,19 +1512,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1511,19 +1535,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1534,19 +1558,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1557,19 +1581,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1580,19 +1604,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1603,19 +1627,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1626,19 +1650,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1649,19 +1673,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1672,19 +1696,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1695,19 +1719,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1718,19 +1742,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1741,19 +1765,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1764,19 +1788,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1787,19 +1811,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1810,19 +1834,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1833,19 +1857,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1856,19 +1880,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1879,19 +1903,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1902,2164 +1926,2164 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="158">
@@ -4067,22 +4091,22 @@
         <v>114</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D158" s="2" t="s">
+      <c r="E158" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="159">
@@ -4090,22 +4114,22 @@
         <v>114</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="160">
@@ -4113,21 +4137,205 @@
         <v>114</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E160" s="2" t="s">
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
@@ -2162,7 +2162,7 @@
         <v>53</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>106</v>
@@ -2691,7 +2691,7 @@
         <v>53</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>109</v>
@@ -3220,7 +3220,7 @@
         <v>53</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>112</v>
@@ -3749,7 +3749,7 @@
         <v>53</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>115</v>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -173,6 +173,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -227,13 +233,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -460,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:H174"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -943,7 +949,7 @@
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>49</v>
@@ -1012,7 +1018,7 @@
         <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>49</v>
@@ -1127,7 +1133,7 @@
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>49</v>
@@ -1219,7 +1225,7 @@
         <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>49</v>
@@ -1334,7 +1340,7 @@
         <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>49</v>
@@ -1380,7 +1386,7 @@
         <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>49</v>
@@ -1489,19 +1495,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1512,19 +1518,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1535,19 +1541,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1558,19 +1564,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1581,19 +1587,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1604,19 +1610,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1627,19 +1633,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1650,19 +1656,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1673,19 +1679,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1696,19 +1702,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1719,19 +1725,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1742,19 +1748,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1765,19 +1771,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1788,19 +1794,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1811,19 +1817,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1834,19 +1840,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1857,19 +1863,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1880,19 +1886,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1903,19 +1909,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1926,19 +1932,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1949,19 +1955,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1972,19 +1978,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1995,19 +2001,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2018,19 +2024,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2041,19 +2047,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2064,19 +2070,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2087,19 +2093,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2113,7 +2119,7 @@
         <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
@@ -2122,13 +2128,13 @@
         <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
@@ -2136,2206 +2142,2344 @@
         <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="E95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="E118" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
+      <c r="E119" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
+      <c r="E120" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
+      <c r="E121" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D141" s="2" t="s">
+      <c r="E141" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
+      <c r="E142" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
+      <c r="E143" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
+      <c r="E144" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
+      <c r="E145" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E164" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D168" s="2" t="s">
+      <c r="C173" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E168" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
+      <c r="B174" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -466,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H174"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -719,7 +725,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>14</v>
@@ -1202,7 +1208,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>49</v>
@@ -1225,7 +1231,7 @@
         <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>49</v>
@@ -1363,7 +1369,7 @@
         <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>49</v>
@@ -1409,7 +1415,7 @@
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>49</v>
@@ -1518,19 +1524,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1541,19 +1547,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1564,19 +1570,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1587,19 +1593,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1610,19 +1616,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1633,19 +1639,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1656,19 +1662,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1679,19 +1685,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1702,19 +1708,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1725,19 +1731,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1748,19 +1754,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1771,19 +1777,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1794,19 +1800,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1817,19 +1823,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1840,19 +1846,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1863,19 +1869,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1886,19 +1892,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1909,19 +1915,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1932,19 +1938,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1955,19 +1961,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1978,19 +1984,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2001,19 +2007,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2024,19 +2030,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2047,19 +2053,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2070,19 +2076,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2093,19 +2099,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2116,19 +2122,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2139,19 +2145,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2165,7 +2171,7 @@
         <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
@@ -2174,13 +2180,13 @@
         <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75">
@@ -2188,2298 +2194,2436 @@
         <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D122" s="2" t="s">
+      <c r="E122" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
+      <c r="E123" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D124" s="2" t="s">
+      <c r="E124" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
+      <c r="E125" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D146" s="2" t="s">
+      <c r="E146" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
+      <c r="E147" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D148" s="2" t="s">
+      <c r="E148" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
+      <c r="E149" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
+      <c r="E150" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E170" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D174" s="2" t="s">
+      <c r="C179" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E174" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
+      <c r="B180" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -472,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H180"/>
+  <dimension ref="A1:H186"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1392,7 +1398,7 @@
         <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>49</v>
@@ -1438,7 +1444,7 @@
         <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>49</v>
@@ -1547,19 +1553,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1570,19 +1576,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1593,19 +1599,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1616,19 +1622,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1639,19 +1645,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1662,19 +1668,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1685,19 +1691,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1708,19 +1714,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1731,19 +1737,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1754,19 +1760,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1777,19 +1783,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1800,19 +1806,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1823,19 +1829,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1846,19 +1852,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1869,19 +1875,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1892,19 +1898,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1915,19 +1921,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1938,19 +1944,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1961,19 +1967,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1984,19 +1990,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2007,19 +2013,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2030,19 +2036,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2053,19 +2059,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2076,19 +2082,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2099,19 +2105,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2128,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2145,19 +2151,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2168,19 +2174,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2191,19 +2197,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2217,7 +2223,7 @@
         <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
@@ -2226,13 +2232,13 @@
         <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -2240,2390 +2246,2528 @@
         <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
+      <c r="E102" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D126" s="2" t="s">
+      <c r="E126" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
+      <c r="E127" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D128" s="2" t="s">
+      <c r="E128" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="E129" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D151" s="2" t="s">
+      <c r="E151" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
+      <c r="E152" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D153" s="2" t="s">
+      <c r="E153" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
+      <c r="E154" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
+      <c r="E155" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E176" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D180" s="2" t="s">
+      <c r="C185" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E180" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
+      <c r="B186" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
+    <t>Identificativo Atto Cartaceo</t>
+  </si>
+  <si>
+    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Data Evento</t>
@@ -478,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:H188"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -777,13 +783,13 @@
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -797,16 +803,16 @@
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -820,13 +826,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -849,7 +855,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -872,7 +878,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -886,19 +892,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -909,16 +915,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>52</v>
@@ -932,16 +938,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>54</v>
@@ -955,7 +961,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>55</v>
@@ -964,7 +970,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>56</v>
@@ -978,16 +984,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>58</v>
@@ -1001,7 +1007,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
@@ -1010,7 +1016,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -1024,7 +1030,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
@@ -1033,7 +1039,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -1047,16 +1053,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1070,7 +1076,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
@@ -1079,7 +1085,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1093,7 +1099,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
@@ -1102,7 +1108,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1116,7 +1122,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
@@ -1125,7 +1131,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1139,7 +1145,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
@@ -1148,7 +1154,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1162,16 +1168,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1185,7 +1191,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
@@ -1194,7 +1200,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1208,16 +1214,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1231,7 +1237,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
@@ -1240,7 +1246,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1254,7 +1260,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
@@ -1263,7 +1269,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1277,7 +1283,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
@@ -1286,7 +1292,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1300,7 +1306,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
@@ -1309,7 +1315,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1323,7 +1329,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
@@ -1332,7 +1338,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1346,7 +1352,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
@@ -1355,7 +1361,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1369,7 +1375,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
@@ -1378,7 +1384,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
@@ -1392,7 +1398,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
@@ -1401,7 +1407,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>94</v>
@@ -1415,16 +1421,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>96</v>
@@ -1438,7 +1444,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>97</v>
@@ -1447,7 +1453,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1461,16 +1467,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>100</v>
@@ -1484,7 +1490,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>101</v>
@@ -1493,7 +1499,7 @@
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>102</v>
@@ -1507,7 +1513,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
@@ -1516,7 +1522,7 @@
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1530,7 +1536,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
@@ -1539,7 +1545,7 @@
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1553,7 +1559,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>107</v>
@@ -1562,7 +1568,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>108</v>
@@ -1576,19 +1582,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1599,16 +1605,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>52</v>
@@ -1622,16 +1628,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>54</v>
@@ -1645,7 +1651,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>55</v>
@@ -1654,7 +1660,7 @@
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>56</v>
@@ -1668,16 +1674,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>58</v>
@@ -1691,7 +1697,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>59</v>
@@ -1700,7 +1706,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>60</v>
@@ -1714,7 +1720,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>61</v>
@@ -1723,7 +1729,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>62</v>
@@ -1737,16 +1743,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>64</v>
@@ -1760,7 +1766,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>65</v>
@@ -1769,7 +1775,7 @@
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>66</v>
@@ -1783,7 +1789,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>67</v>
@@ -1792,7 +1798,7 @@
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>68</v>
@@ -1806,7 +1812,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>69</v>
@@ -1815,7 +1821,7 @@
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>70</v>
@@ -1829,7 +1835,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>71</v>
@@ -1838,7 +1844,7 @@
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>72</v>
@@ -1852,16 +1858,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>74</v>
@@ -1875,7 +1881,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>75</v>
@@ -1884,7 +1890,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>76</v>
@@ -1898,16 +1904,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>78</v>
@@ -1921,7 +1927,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>79</v>
@@ -1930,7 +1936,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>80</v>
@@ -1944,7 +1950,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>81</v>
@@ -1953,7 +1959,7 @@
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>82</v>
@@ -1967,7 +1973,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>83</v>
@@ -1976,7 +1982,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>84</v>
@@ -1990,7 +1996,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>85</v>
@@ -1999,7 +2005,7 @@
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>86</v>
@@ -2013,7 +2019,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>87</v>
@@ -2022,7 +2028,7 @@
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>88</v>
@@ -2036,7 +2042,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>89</v>
@@ -2045,7 +2051,7 @@
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>90</v>
@@ -2059,7 +2065,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>91</v>
@@ -2068,7 +2074,7 @@
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>92</v>
@@ -2082,7 +2088,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>93</v>
@@ -2091,7 +2097,7 @@
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>94</v>
@@ -2105,16 +2111,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>96</v>
@@ -2128,7 +2134,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>97</v>
@@ -2137,7 +2143,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>98</v>
@@ -2151,16 +2157,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>100</v>
@@ -2174,7 +2180,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>101</v>
@@ -2183,7 +2189,7 @@
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>102</v>
@@ -2197,7 +2203,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>103</v>
@@ -2206,7 +2212,7 @@
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>104</v>
@@ -2220,7 +2226,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>105</v>
@@ -2229,7 +2235,7 @@
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>106</v>
@@ -2243,7 +2249,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>107</v>
@@ -2252,7 +2258,7 @@
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>108</v>
@@ -2269,7 +2275,7 @@
         <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
@@ -2278,27 +2284,27 @@
         <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>52</v>
@@ -2307,21 +2313,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>54</v>
@@ -2330,21 +2336,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>56</v>
@@ -2353,12 +2359,12 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>57</v>
@@ -2367,7 +2373,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>58</v>
@@ -2376,12 +2382,12 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>59</v>
@@ -2390,7 +2396,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>60</v>
@@ -2399,12 +2405,12 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>61</v>
@@ -2413,7 +2419,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>62</v>
@@ -2422,21 +2428,21 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>64</v>
@@ -2445,12 +2451,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>65</v>
@@ -2459,7 +2465,7 @@
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>66</v>
@@ -2468,12 +2474,12 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>67</v>
@@ -2482,7 +2488,7 @@
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>68</v>
@@ -2491,12 +2497,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>69</v>
@@ -2505,7 +2511,7 @@
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>70</v>
@@ -2514,12 +2520,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>71</v>
@@ -2528,7 +2534,7 @@
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>72</v>
@@ -2537,12 +2543,12 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>73</v>
@@ -2551,7 +2557,7 @@
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>74</v>
@@ -2560,12 +2566,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>75</v>
@@ -2574,7 +2580,7 @@
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>76</v>
@@ -2583,12 +2589,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>77</v>
@@ -2597,7 +2603,7 @@
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>78</v>
@@ -2606,12 +2612,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>79</v>
@@ -2620,7 +2626,7 @@
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>80</v>
@@ -2629,12 +2635,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>81</v>
@@ -2643,7 +2649,7 @@
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>82</v>
@@ -2652,12 +2658,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>83</v>
@@ -2666,7 +2672,7 @@
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>84</v>
@@ -2675,12 +2681,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>85</v>
@@ -2689,7 +2695,7 @@
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>86</v>
@@ -2698,12 +2704,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>87</v>
@@ -2712,7 +2718,7 @@
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>88</v>
@@ -2721,12 +2727,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>89</v>
@@ -2735,7 +2741,7 @@
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>90</v>
@@ -2744,12 +2750,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>91</v>
@@ -2758,7 +2764,7 @@
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>92</v>
@@ -2767,12 +2773,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>93</v>
@@ -2781,7 +2787,7 @@
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>94</v>
@@ -2790,21 +2796,21 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>96</v>
@@ -2813,12 +2819,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>97</v>
@@ -2827,7 +2833,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>98</v>
@@ -2836,21 +2842,21 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>100</v>
@@ -2859,44 +2865,44 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>52</v>
@@ -2905,21 +2911,21 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>54</v>
@@ -2928,21 +2934,21 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>56</v>
@@ -2951,12 +2957,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>57</v>
@@ -2965,7 +2971,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>58</v>
@@ -2974,12 +2980,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>59</v>
@@ -2988,7 +2994,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>60</v>
@@ -2997,12 +3003,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>61</v>
@@ -3011,7 +3017,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>62</v>
@@ -3020,21 +3026,21 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>64</v>
@@ -3043,12 +3049,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>65</v>
@@ -3057,7 +3063,7 @@
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>66</v>
@@ -3066,12 +3072,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>67</v>
@@ -3080,7 +3086,7 @@
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>68</v>
@@ -3089,12 +3095,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>69</v>
@@ -3103,7 +3109,7 @@
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>70</v>
@@ -3112,12 +3118,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>71</v>
@@ -3126,7 +3132,7 @@
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>72</v>
@@ -3135,12 +3141,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>73</v>
@@ -3149,7 +3155,7 @@
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>74</v>
@@ -3158,12 +3164,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>75</v>
@@ -3172,7 +3178,7 @@
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>76</v>
@@ -3181,12 +3187,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>77</v>
@@ -3195,7 +3201,7 @@
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>78</v>
@@ -3204,12 +3210,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>79</v>
@@ -3218,7 +3224,7 @@
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>80</v>
@@ -3227,12 +3233,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>81</v>
@@ -3241,7 +3247,7 @@
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>82</v>
@@ -3250,12 +3256,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>83</v>
@@ -3264,7 +3270,7 @@
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>84</v>
@@ -3273,12 +3279,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>85</v>
@@ -3287,7 +3293,7 @@
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>86</v>
@@ -3296,12 +3302,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>87</v>
@@ -3310,7 +3316,7 @@
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>88</v>
@@ -3319,12 +3325,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>89</v>
@@ -3333,7 +3339,7 @@
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>90</v>
@@ -3342,12 +3348,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>91</v>
@@ -3356,7 +3362,7 @@
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>92</v>
@@ -3365,12 +3371,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>93</v>
@@ -3379,7 +3385,7 @@
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>94</v>
@@ -3388,21 +3394,21 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>96</v>
@@ -3411,12 +3417,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>97</v>
@@ -3425,7 +3431,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>98</v>
@@ -3434,21 +3440,21 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>100</v>
@@ -3457,44 +3463,44 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="E130" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>52</v>
@@ -3503,21 +3509,21 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>54</v>
@@ -3526,21 +3532,21 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>56</v>
@@ -3549,12 +3555,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>57</v>
@@ -3563,7 +3569,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>58</v>
@@ -3572,12 +3578,12 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>59</v>
@@ -3586,7 +3592,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>60</v>
@@ -3595,12 +3601,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>61</v>
@@ -3609,7 +3615,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>62</v>
@@ -3618,21 +3624,21 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>64</v>
@@ -3641,12 +3647,12 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>65</v>
@@ -3655,7 +3661,7 @@
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>66</v>
@@ -3664,12 +3670,12 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>67</v>
@@ -3678,7 +3684,7 @@
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>68</v>
@@ -3687,12 +3693,12 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>69</v>
@@ -3701,7 +3707,7 @@
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>70</v>
@@ -3710,12 +3716,12 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>71</v>
@@ -3724,7 +3730,7 @@
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>72</v>
@@ -3733,12 +3739,12 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>73</v>
@@ -3747,7 +3753,7 @@
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>74</v>
@@ -3756,12 +3762,12 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>75</v>
@@ -3770,7 +3776,7 @@
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>76</v>
@@ -3779,12 +3785,12 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>77</v>
@@ -3793,7 +3799,7 @@
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>78</v>
@@ -3802,12 +3808,12 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>79</v>
@@ -3816,7 +3822,7 @@
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>80</v>
@@ -3825,12 +3831,12 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>81</v>
@@ -3839,7 +3845,7 @@
         <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>82</v>
@@ -3848,12 +3854,12 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>83</v>
@@ -3862,7 +3868,7 @@
         <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>84</v>
@@ -3871,12 +3877,12 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>85</v>
@@ -3885,7 +3891,7 @@
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>86</v>
@@ -3894,12 +3900,12 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>87</v>
@@ -3908,7 +3914,7 @@
         <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>88</v>
@@ -3917,12 +3923,12 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>89</v>
@@ -3931,7 +3937,7 @@
         <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>90</v>
@@ -3940,12 +3946,12 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>91</v>
@@ -3954,7 +3960,7 @@
         <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>92</v>
@@ -3963,12 +3969,12 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>93</v>
@@ -3977,7 +3983,7 @@
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>94</v>
@@ -3986,21 +3992,21 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>96</v>
@@ -4009,12 +4015,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>97</v>
@@ -4023,7 +4029,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>98</v>
@@ -4032,21 +4038,21 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>100</v>
@@ -4055,44 +4061,44 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D156" s="2" t="s">
+      <c r="E156" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>52</v>
@@ -4101,21 +4107,21 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>54</v>
@@ -4124,21 +4130,21 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>56</v>
@@ -4147,12 +4153,12 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>57</v>
@@ -4161,7 +4167,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>58</v>
@@ -4170,12 +4176,12 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>59</v>
@@ -4184,7 +4190,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>60</v>
@@ -4193,12 +4199,12 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>61</v>
@@ -4207,7 +4213,7 @@
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>62</v>
@@ -4216,21 +4222,21 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>64</v>
@@ -4239,12 +4245,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>65</v>
@@ -4253,7 +4259,7 @@
         <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>66</v>
@@ -4262,12 +4268,12 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>67</v>
@@ -4276,7 +4282,7 @@
         <v>25</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>68</v>
@@ -4285,12 +4291,12 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>69</v>
@@ -4299,7 +4305,7 @@
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>70</v>
@@ -4308,12 +4314,12 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>71</v>
@@ -4322,7 +4328,7 @@
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>72</v>
@@ -4331,12 +4337,12 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>73</v>
@@ -4345,7 +4351,7 @@
         <v>25</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>74</v>
@@ -4354,12 +4360,12 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>75</v>
@@ -4368,7 +4374,7 @@
         <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>76</v>
@@ -4377,12 +4383,12 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>77</v>
@@ -4391,7 +4397,7 @@
         <v>25</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>78</v>
@@ -4400,12 +4406,12 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>79</v>
@@ -4414,7 +4420,7 @@
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>80</v>
@@ -4423,12 +4429,12 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>81</v>
@@ -4437,7 +4443,7 @@
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>82</v>
@@ -4446,12 +4452,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>83</v>
@@ -4460,7 +4466,7 @@
         <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>84</v>
@@ -4469,12 +4475,12 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>85</v>
@@ -4483,7 +4489,7 @@
         <v>25</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>86</v>
@@ -4492,12 +4498,12 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>87</v>
@@ -4506,7 +4512,7 @@
         <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>88</v>
@@ -4515,12 +4521,12 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>89</v>
@@ -4529,7 +4535,7 @@
         <v>25</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>90</v>
@@ -4538,12 +4544,12 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>91</v>
@@ -4552,7 +4558,7 @@
         <v>25</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>92</v>
@@ -4561,12 +4567,12 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>93</v>
@@ -4575,7 +4581,7 @@
         <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>94</v>
@@ -4584,21 +4590,21 @@
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>96</v>
@@ -4607,12 +4613,12 @@
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>97</v>
@@ -4621,7 +4627,7 @@
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>98</v>
@@ -4630,21 +4636,21 @@
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>100</v>
@@ -4653,30 +4659,30 @@
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E182" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="183">
@@ -4684,16 +4690,16 @@
         <v>125</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4704,19 +4710,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4727,16 +4733,16 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>133</v>
@@ -4750,7 +4756,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>134</v>
@@ -4759,7 +4765,7 @@
         <v>25</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>135</v>
@@ -4768,6 +4774,52 @@
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
-  </si>
-  <si>
-    <t>Identificativo Atto Cartaceo</t>
-  </si>
-  <si>
-    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Data Evento</t>
@@ -484,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H188"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -783,13 +777,13 @@
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -803,16 +797,16 @@
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -826,13 +820,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -855,7 +849,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -878,7 +872,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -892,19 +886,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -915,16 +909,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>52</v>
@@ -938,16 +932,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>54</v>
@@ -961,7 +955,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>55</v>
@@ -970,7 +964,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>56</v>
@@ -984,16 +978,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>58</v>
@@ -1007,7 +1001,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
@@ -1016,7 +1010,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -1030,7 +1024,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
@@ -1039,7 +1033,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -1053,16 +1047,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1076,7 +1070,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
@@ -1085,7 +1079,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1099,7 +1093,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
@@ -1108,7 +1102,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1122,7 +1116,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
@@ -1131,7 +1125,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1145,7 +1139,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
@@ -1154,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1168,16 +1162,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1191,7 +1185,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
@@ -1200,7 +1194,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1214,16 +1208,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1237,7 +1231,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
@@ -1246,7 +1240,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1260,7 +1254,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
@@ -1269,7 +1263,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1283,7 +1277,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
@@ -1292,7 +1286,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1306,7 +1300,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
@@ -1315,7 +1309,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1329,7 +1323,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
@@ -1338,7 +1332,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1352,7 +1346,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
@@ -1361,7 +1355,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1375,7 +1369,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
@@ -1384,7 +1378,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
@@ -1398,7 +1392,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
@@ -1407,7 +1401,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>94</v>
@@ -1421,16 +1415,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>96</v>
@@ -1444,7 +1438,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>97</v>
@@ -1453,7 +1447,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1467,16 +1461,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>100</v>
@@ -1490,7 +1484,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>101</v>
@@ -1499,7 +1493,7 @@
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>102</v>
@@ -1513,7 +1507,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
@@ -1522,7 +1516,7 @@
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1536,7 +1530,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
@@ -1545,7 +1539,7 @@
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1559,7 +1553,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>107</v>
@@ -1568,7 +1562,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>108</v>
@@ -1582,19 +1576,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1605,16 +1599,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>52</v>
@@ -1628,16 +1622,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>54</v>
@@ -1651,7 +1645,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>55</v>
@@ -1660,7 +1654,7 @@
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>56</v>
@@ -1674,16 +1668,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>58</v>
@@ -1697,7 +1691,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>59</v>
@@ -1706,7 +1700,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>60</v>
@@ -1720,7 +1714,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>61</v>
@@ -1729,7 +1723,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>62</v>
@@ -1743,16 +1737,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>64</v>
@@ -1766,7 +1760,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>65</v>
@@ -1775,7 +1769,7 @@
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>66</v>
@@ -1789,7 +1783,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>67</v>
@@ -1798,7 +1792,7 @@
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>68</v>
@@ -1812,7 +1806,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>69</v>
@@ -1821,7 +1815,7 @@
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>70</v>
@@ -1835,7 +1829,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>71</v>
@@ -1844,7 +1838,7 @@
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>72</v>
@@ -1858,16 +1852,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>74</v>
@@ -1881,7 +1875,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>75</v>
@@ -1890,7 +1884,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>76</v>
@@ -1904,16 +1898,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>78</v>
@@ -1927,7 +1921,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>79</v>
@@ -1936,7 +1930,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>80</v>
@@ -1950,7 +1944,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>81</v>
@@ -1959,7 +1953,7 @@
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>82</v>
@@ -1973,7 +1967,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>83</v>
@@ -1982,7 +1976,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>84</v>
@@ -1996,7 +1990,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>85</v>
@@ -2005,7 +1999,7 @@
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>86</v>
@@ -2019,7 +2013,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>87</v>
@@ -2028,7 +2022,7 @@
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>88</v>
@@ -2042,7 +2036,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>89</v>
@@ -2051,7 +2045,7 @@
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>90</v>
@@ -2065,7 +2059,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>91</v>
@@ -2074,7 +2068,7 @@
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>92</v>
@@ -2088,7 +2082,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>93</v>
@@ -2097,7 +2091,7 @@
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>94</v>
@@ -2111,16 +2105,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>96</v>
@@ -2134,7 +2128,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>97</v>
@@ -2143,7 +2137,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>98</v>
@@ -2157,16 +2151,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>100</v>
@@ -2180,7 +2174,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>101</v>
@@ -2189,7 +2183,7 @@
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>102</v>
@@ -2203,7 +2197,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>103</v>
@@ -2212,7 +2206,7 @@
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>104</v>
@@ -2226,7 +2220,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>105</v>
@@ -2235,7 +2229,7 @@
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>106</v>
@@ -2249,7 +2243,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>107</v>
@@ -2258,7 +2252,7 @@
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>108</v>
@@ -2275,7 +2269,7 @@
         <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
@@ -2284,27 +2278,27 @@
         <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>52</v>
@@ -2313,21 +2307,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>54</v>
@@ -2336,21 +2330,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>56</v>
@@ -2359,12 +2353,12 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>57</v>
@@ -2373,7 +2367,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>58</v>
@@ -2382,12 +2376,12 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>59</v>
@@ -2396,7 +2390,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>60</v>
@@ -2405,12 +2399,12 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>61</v>
@@ -2419,7 +2413,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>62</v>
@@ -2428,21 +2422,21 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>64</v>
@@ -2451,12 +2445,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>65</v>
@@ -2465,7 +2459,7 @@
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>66</v>
@@ -2474,12 +2468,12 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>67</v>
@@ -2488,7 +2482,7 @@
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>68</v>
@@ -2497,12 +2491,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>69</v>
@@ -2511,7 +2505,7 @@
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>70</v>
@@ -2520,12 +2514,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>71</v>
@@ -2534,7 +2528,7 @@
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>72</v>
@@ -2543,12 +2537,12 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>73</v>
@@ -2557,7 +2551,7 @@
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>74</v>
@@ -2566,12 +2560,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>75</v>
@@ -2580,7 +2574,7 @@
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>76</v>
@@ -2589,12 +2583,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>77</v>
@@ -2603,7 +2597,7 @@
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>78</v>
@@ -2612,12 +2606,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>79</v>
@@ -2626,7 +2620,7 @@
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>80</v>
@@ -2635,12 +2629,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>81</v>
@@ -2649,7 +2643,7 @@
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>82</v>
@@ -2658,12 +2652,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>83</v>
@@ -2672,7 +2666,7 @@
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>84</v>
@@ -2681,12 +2675,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>85</v>
@@ -2695,7 +2689,7 @@
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>86</v>
@@ -2704,12 +2698,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>87</v>
@@ -2718,7 +2712,7 @@
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>88</v>
@@ -2727,12 +2721,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>89</v>
@@ -2741,7 +2735,7 @@
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>90</v>
@@ -2750,12 +2744,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>91</v>
@@ -2764,7 +2758,7 @@
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>92</v>
@@ -2773,12 +2767,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>93</v>
@@ -2787,7 +2781,7 @@
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>94</v>
@@ -2796,21 +2790,21 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>96</v>
@@ -2819,12 +2813,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>97</v>
@@ -2833,7 +2827,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>98</v>
@@ -2842,21 +2836,21 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>100</v>
@@ -2865,44 +2859,44 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>52</v>
@@ -2911,21 +2905,21 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>54</v>
@@ -2934,21 +2928,21 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>56</v>
@@ -2957,12 +2951,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>57</v>
@@ -2971,7 +2965,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>58</v>
@@ -2980,12 +2974,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>59</v>
@@ -2994,7 +2988,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>60</v>
@@ -3003,12 +2997,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>61</v>
@@ -3017,7 +3011,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>62</v>
@@ -3026,21 +3020,21 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>64</v>
@@ -3049,12 +3043,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>65</v>
@@ -3063,7 +3057,7 @@
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>66</v>
@@ -3072,12 +3066,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>67</v>
@@ -3086,7 +3080,7 @@
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>68</v>
@@ -3095,12 +3089,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>69</v>
@@ -3109,7 +3103,7 @@
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>70</v>
@@ -3118,12 +3112,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>71</v>
@@ -3132,7 +3126,7 @@
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>72</v>
@@ -3141,12 +3135,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>73</v>
@@ -3155,7 +3149,7 @@
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>74</v>
@@ -3164,12 +3158,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>75</v>
@@ -3178,7 +3172,7 @@
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>76</v>
@@ -3187,12 +3181,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>77</v>
@@ -3201,7 +3195,7 @@
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>78</v>
@@ -3210,12 +3204,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>79</v>
@@ -3224,7 +3218,7 @@
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>80</v>
@@ -3233,12 +3227,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>81</v>
@@ -3247,7 +3241,7 @@
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>82</v>
@@ -3256,12 +3250,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>83</v>
@@ -3270,7 +3264,7 @@
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>84</v>
@@ -3279,12 +3273,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>85</v>
@@ -3293,7 +3287,7 @@
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>86</v>
@@ -3302,12 +3296,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>87</v>
@@ -3316,7 +3310,7 @@
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>88</v>
@@ -3325,12 +3319,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>89</v>
@@ -3339,7 +3333,7 @@
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>90</v>
@@ -3348,12 +3342,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>91</v>
@@ -3362,7 +3356,7 @@
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>92</v>
@@ -3371,12 +3365,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>93</v>
@@ -3385,7 +3379,7 @@
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>94</v>
@@ -3394,21 +3388,21 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>96</v>
@@ -3417,12 +3411,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>97</v>
@@ -3431,7 +3425,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>98</v>
@@ -3440,21 +3434,21 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>100</v>
@@ -3463,44 +3457,44 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>52</v>
@@ -3509,21 +3503,21 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>54</v>
@@ -3532,21 +3526,21 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>56</v>
@@ -3555,12 +3549,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>57</v>
@@ -3569,7 +3563,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>58</v>
@@ -3578,12 +3572,12 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>59</v>
@@ -3592,7 +3586,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>60</v>
@@ -3601,12 +3595,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>61</v>
@@ -3615,7 +3609,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>62</v>
@@ -3624,21 +3618,21 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>64</v>
@@ -3647,12 +3641,12 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>65</v>
@@ -3661,7 +3655,7 @@
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>66</v>
@@ -3670,12 +3664,12 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>67</v>
@@ -3684,7 +3678,7 @@
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>68</v>
@@ -3693,12 +3687,12 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>69</v>
@@ -3707,7 +3701,7 @@
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>70</v>
@@ -3716,12 +3710,12 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>71</v>
@@ -3730,7 +3724,7 @@
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>72</v>
@@ -3739,12 +3733,12 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>73</v>
@@ -3753,7 +3747,7 @@
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>74</v>
@@ -3762,12 +3756,12 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>75</v>
@@ -3776,7 +3770,7 @@
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>76</v>
@@ -3785,12 +3779,12 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>77</v>
@@ -3799,7 +3793,7 @@
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>78</v>
@@ -3808,12 +3802,12 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>79</v>
@@ -3822,7 +3816,7 @@
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>80</v>
@@ -3831,12 +3825,12 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>81</v>
@@ -3845,7 +3839,7 @@
         <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>82</v>
@@ -3854,12 +3848,12 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>83</v>
@@ -3868,7 +3862,7 @@
         <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>84</v>
@@ -3877,12 +3871,12 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>85</v>
@@ -3891,7 +3885,7 @@
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>86</v>
@@ -3900,12 +3894,12 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>87</v>
@@ -3914,7 +3908,7 @@
         <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>88</v>
@@ -3923,12 +3917,12 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>89</v>
@@ -3937,7 +3931,7 @@
         <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>90</v>
@@ -3946,12 +3940,12 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>91</v>
@@ -3960,7 +3954,7 @@
         <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>92</v>
@@ -3969,12 +3963,12 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>93</v>
@@ -3983,7 +3977,7 @@
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>94</v>
@@ -3992,21 +3986,21 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>96</v>
@@ -4015,12 +4009,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>97</v>
@@ -4029,7 +4023,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>98</v>
@@ -4038,21 +4032,21 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>100</v>
@@ -4061,44 +4055,44 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>52</v>
@@ -4107,21 +4101,21 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>54</v>
@@ -4130,21 +4124,21 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>56</v>
@@ -4153,12 +4147,12 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>57</v>
@@ -4167,7 +4161,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>58</v>
@@ -4176,12 +4170,12 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>59</v>
@@ -4190,7 +4184,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>60</v>
@@ -4199,12 +4193,12 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>61</v>
@@ -4213,7 +4207,7 @@
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>62</v>
@@ -4222,21 +4216,21 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>64</v>
@@ -4245,12 +4239,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>65</v>
@@ -4259,7 +4253,7 @@
         <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>66</v>
@@ -4268,12 +4262,12 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>67</v>
@@ -4282,7 +4276,7 @@
         <v>25</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>68</v>
@@ -4291,12 +4285,12 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>69</v>
@@ -4305,7 +4299,7 @@
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>70</v>
@@ -4314,12 +4308,12 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>71</v>
@@ -4328,7 +4322,7 @@
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>72</v>
@@ -4337,12 +4331,12 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>73</v>
@@ -4351,7 +4345,7 @@
         <v>25</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>74</v>
@@ -4360,12 +4354,12 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>75</v>
@@ -4374,7 +4368,7 @@
         <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>76</v>
@@ -4383,12 +4377,12 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>77</v>
@@ -4397,7 +4391,7 @@
         <v>25</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>78</v>
@@ -4406,12 +4400,12 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>79</v>
@@ -4420,7 +4414,7 @@
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>80</v>
@@ -4429,12 +4423,12 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>81</v>
@@ -4443,7 +4437,7 @@
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>82</v>
@@ -4452,12 +4446,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>83</v>
@@ -4466,7 +4460,7 @@
         <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>84</v>
@@ -4475,12 +4469,12 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>85</v>
@@ -4489,7 +4483,7 @@
         <v>25</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>86</v>
@@ -4498,12 +4492,12 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>87</v>
@@ -4512,7 +4506,7 @@
         <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>88</v>
@@ -4521,12 +4515,12 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>89</v>
@@ -4535,7 +4529,7 @@
         <v>25</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>90</v>
@@ -4544,12 +4538,12 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>91</v>
@@ -4558,7 +4552,7 @@
         <v>25</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>92</v>
@@ -4567,12 +4561,12 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>93</v>
@@ -4581,7 +4575,7 @@
         <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>94</v>
@@ -4590,21 +4584,21 @@
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>96</v>
@@ -4613,12 +4607,12 @@
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>97</v>
@@ -4627,7 +4621,7 @@
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>98</v>
@@ -4636,21 +4630,21 @@
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>100</v>
@@ -4659,30 +4653,30 @@
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="183">
@@ -4690,16 +4684,16 @@
         <v>125</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4710,19 +4704,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4733,16 +4727,16 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>133</v>
@@ -4756,7 +4750,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>134</v>
@@ -4765,7 +4759,7 @@
         <v>25</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>135</v>
@@ -4779,47 +4773,24 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E187" s="2" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
+    <t>Identificativo Atto Cartaceo</t>
+  </si>
+  <si>
+    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Data Evento</t>
@@ -478,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H187"/>
+  <dimension ref="A1:H188"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -777,13 +783,13 @@
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -797,16 +803,16 @@
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -820,13 +826,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -849,7 +855,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -872,7 +878,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -886,19 +892,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -909,16 +915,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>52</v>
@@ -932,16 +938,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>54</v>
@@ -955,7 +961,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>55</v>
@@ -964,7 +970,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>56</v>
@@ -978,16 +984,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>58</v>
@@ -1001,7 +1007,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
@@ -1010,7 +1016,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -1024,7 +1030,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
@@ -1033,7 +1039,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -1047,16 +1053,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1070,7 +1076,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
@@ -1079,7 +1085,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1093,7 +1099,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
@@ -1102,7 +1108,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1116,7 +1122,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
@@ -1125,7 +1131,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1139,7 +1145,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
@@ -1148,7 +1154,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1162,16 +1168,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1185,7 +1191,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
@@ -1194,7 +1200,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1208,16 +1214,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1231,7 +1237,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
@@ -1240,7 +1246,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1254,7 +1260,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
@@ -1263,7 +1269,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1277,7 +1283,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
@@ -1286,7 +1292,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1300,7 +1306,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
@@ -1309,7 +1315,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1323,7 +1329,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
@@ -1332,7 +1338,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1346,7 +1352,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
@@ -1355,7 +1361,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1369,7 +1375,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
@@ -1378,7 +1384,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
@@ -1392,7 +1398,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
@@ -1401,7 +1407,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>94</v>
@@ -1415,16 +1421,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>96</v>
@@ -1438,7 +1444,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>97</v>
@@ -1447,7 +1453,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1461,16 +1467,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>100</v>
@@ -1484,7 +1490,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>101</v>
@@ -1493,7 +1499,7 @@
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>102</v>
@@ -1507,7 +1513,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
@@ -1516,7 +1522,7 @@
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1530,7 +1536,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
@@ -1539,7 +1545,7 @@
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1553,7 +1559,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>107</v>
@@ -1562,7 +1568,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>108</v>
@@ -1576,19 +1582,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1599,16 +1605,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>52</v>
@@ -1622,16 +1628,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>54</v>
@@ -1645,7 +1651,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>55</v>
@@ -1654,7 +1660,7 @@
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>56</v>
@@ -1668,16 +1674,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>58</v>
@@ -1691,7 +1697,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>59</v>
@@ -1700,7 +1706,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>60</v>
@@ -1714,7 +1720,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>61</v>
@@ -1723,7 +1729,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>62</v>
@@ -1737,16 +1743,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>64</v>
@@ -1760,7 +1766,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>65</v>
@@ -1769,7 +1775,7 @@
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>66</v>
@@ -1783,7 +1789,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>67</v>
@@ -1792,7 +1798,7 @@
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>68</v>
@@ -1806,7 +1812,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>69</v>
@@ -1815,7 +1821,7 @@
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>70</v>
@@ -1829,7 +1835,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>71</v>
@@ -1838,7 +1844,7 @@
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>72</v>
@@ -1852,16 +1858,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>74</v>
@@ -1875,7 +1881,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>75</v>
@@ -1884,7 +1890,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>76</v>
@@ -1898,16 +1904,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>78</v>
@@ -1921,7 +1927,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>79</v>
@@ -1930,7 +1936,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>80</v>
@@ -1944,7 +1950,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>81</v>
@@ -1953,7 +1959,7 @@
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>82</v>
@@ -1967,7 +1973,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>83</v>
@@ -1976,7 +1982,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>84</v>
@@ -1990,7 +1996,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>85</v>
@@ -1999,7 +2005,7 @@
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>86</v>
@@ -2013,7 +2019,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>87</v>
@@ -2022,7 +2028,7 @@
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>88</v>
@@ -2036,7 +2042,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>89</v>
@@ -2045,7 +2051,7 @@
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>90</v>
@@ -2059,7 +2065,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>91</v>
@@ -2068,7 +2074,7 @@
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>92</v>
@@ -2082,7 +2088,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>93</v>
@@ -2091,7 +2097,7 @@
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>94</v>
@@ -2105,16 +2111,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>96</v>
@@ -2128,7 +2134,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>97</v>
@@ -2137,7 +2143,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>98</v>
@@ -2151,16 +2157,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>100</v>
@@ -2174,7 +2180,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>101</v>
@@ -2183,7 +2189,7 @@
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>102</v>
@@ -2197,7 +2203,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>103</v>
@@ -2206,7 +2212,7 @@
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>104</v>
@@ -2220,7 +2226,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>105</v>
@@ -2229,7 +2235,7 @@
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>106</v>
@@ -2243,7 +2249,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>107</v>
@@ -2252,7 +2258,7 @@
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>108</v>
@@ -2269,7 +2275,7 @@
         <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
@@ -2278,27 +2284,27 @@
         <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>52</v>
@@ -2307,21 +2313,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>54</v>
@@ -2330,21 +2336,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>56</v>
@@ -2353,12 +2359,12 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>57</v>
@@ -2367,7 +2373,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>58</v>
@@ -2376,12 +2382,12 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>59</v>
@@ -2390,7 +2396,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>60</v>
@@ -2399,12 +2405,12 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>61</v>
@@ -2413,7 +2419,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>62</v>
@@ -2422,21 +2428,21 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>64</v>
@@ -2445,12 +2451,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>65</v>
@@ -2459,7 +2465,7 @@
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>66</v>
@@ -2468,12 +2474,12 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>67</v>
@@ -2482,7 +2488,7 @@
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>68</v>
@@ -2491,12 +2497,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>69</v>
@@ -2505,7 +2511,7 @@
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>70</v>
@@ -2514,12 +2520,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>71</v>
@@ -2528,7 +2534,7 @@
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>72</v>
@@ -2537,12 +2543,12 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>73</v>
@@ -2551,7 +2557,7 @@
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>74</v>
@@ -2560,12 +2566,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>75</v>
@@ -2574,7 +2580,7 @@
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>76</v>
@@ -2583,12 +2589,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>77</v>
@@ -2597,7 +2603,7 @@
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>78</v>
@@ -2606,12 +2612,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>79</v>
@@ -2620,7 +2626,7 @@
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>80</v>
@@ -2629,12 +2635,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>81</v>
@@ -2643,7 +2649,7 @@
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>82</v>
@@ -2652,12 +2658,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>83</v>
@@ -2666,7 +2672,7 @@
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>84</v>
@@ -2675,12 +2681,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>85</v>
@@ -2689,7 +2695,7 @@
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>86</v>
@@ -2698,12 +2704,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>87</v>
@@ -2712,7 +2718,7 @@
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>88</v>
@@ -2721,12 +2727,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>89</v>
@@ -2735,7 +2741,7 @@
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>90</v>
@@ -2744,12 +2750,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>91</v>
@@ -2758,7 +2764,7 @@
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>92</v>
@@ -2767,12 +2773,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>93</v>
@@ -2781,7 +2787,7 @@
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>94</v>
@@ -2790,21 +2796,21 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>96</v>
@@ -2813,12 +2819,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>97</v>
@@ -2827,7 +2833,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>98</v>
@@ -2836,21 +2842,21 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>100</v>
@@ -2859,44 +2865,44 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>52</v>
@@ -2905,21 +2911,21 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>54</v>
@@ -2928,21 +2934,21 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>56</v>
@@ -2951,12 +2957,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>57</v>
@@ -2965,7 +2971,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>58</v>
@@ -2974,12 +2980,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>59</v>
@@ -2988,7 +2994,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>60</v>
@@ -2997,12 +3003,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>61</v>
@@ -3011,7 +3017,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>62</v>
@@ -3020,21 +3026,21 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>64</v>
@@ -3043,12 +3049,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>65</v>
@@ -3057,7 +3063,7 @@
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>66</v>
@@ -3066,12 +3072,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>67</v>
@@ -3080,7 +3086,7 @@
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>68</v>
@@ -3089,12 +3095,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>69</v>
@@ -3103,7 +3109,7 @@
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>70</v>
@@ -3112,12 +3118,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>71</v>
@@ -3126,7 +3132,7 @@
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>72</v>
@@ -3135,12 +3141,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>73</v>
@@ -3149,7 +3155,7 @@
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>74</v>
@@ -3158,12 +3164,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>75</v>
@@ -3172,7 +3178,7 @@
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>76</v>
@@ -3181,12 +3187,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>77</v>
@@ -3195,7 +3201,7 @@
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>78</v>
@@ -3204,12 +3210,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>79</v>
@@ -3218,7 +3224,7 @@
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>80</v>
@@ -3227,12 +3233,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>81</v>
@@ -3241,7 +3247,7 @@
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>82</v>
@@ -3250,12 +3256,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>83</v>
@@ -3264,7 +3270,7 @@
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>84</v>
@@ -3273,12 +3279,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>85</v>
@@ -3287,7 +3293,7 @@
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>86</v>
@@ -3296,12 +3302,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>87</v>
@@ -3310,7 +3316,7 @@
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>88</v>
@@ -3319,12 +3325,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>89</v>
@@ -3333,7 +3339,7 @@
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>90</v>
@@ -3342,12 +3348,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>91</v>
@@ -3356,7 +3362,7 @@
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>92</v>
@@ -3365,12 +3371,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>93</v>
@@ -3379,7 +3385,7 @@
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>94</v>
@@ -3388,21 +3394,21 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>96</v>
@@ -3411,12 +3417,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>97</v>
@@ -3425,7 +3431,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>98</v>
@@ -3434,21 +3440,21 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>100</v>
@@ -3457,44 +3463,44 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="E130" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>52</v>
@@ -3503,21 +3509,21 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>54</v>
@@ -3526,21 +3532,21 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>56</v>
@@ -3549,12 +3555,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>57</v>
@@ -3563,7 +3569,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>58</v>
@@ -3572,12 +3578,12 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>59</v>
@@ -3586,7 +3592,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>60</v>
@@ -3595,12 +3601,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>61</v>
@@ -3609,7 +3615,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>62</v>
@@ -3618,21 +3624,21 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>64</v>
@@ -3641,12 +3647,12 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>65</v>
@@ -3655,7 +3661,7 @@
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>66</v>
@@ -3664,12 +3670,12 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>67</v>
@@ -3678,7 +3684,7 @@
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>68</v>
@@ -3687,12 +3693,12 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>69</v>
@@ -3701,7 +3707,7 @@
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>70</v>
@@ -3710,12 +3716,12 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>71</v>
@@ -3724,7 +3730,7 @@
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>72</v>
@@ -3733,12 +3739,12 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>73</v>
@@ -3747,7 +3753,7 @@
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>74</v>
@@ -3756,12 +3762,12 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>75</v>
@@ -3770,7 +3776,7 @@
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>76</v>
@@ -3779,12 +3785,12 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>77</v>
@@ -3793,7 +3799,7 @@
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>78</v>
@@ -3802,12 +3808,12 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>79</v>
@@ -3816,7 +3822,7 @@
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>80</v>
@@ -3825,12 +3831,12 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>81</v>
@@ -3839,7 +3845,7 @@
         <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>82</v>
@@ -3848,12 +3854,12 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>83</v>
@@ -3862,7 +3868,7 @@
         <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>84</v>
@@ -3871,12 +3877,12 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>85</v>
@@ -3885,7 +3891,7 @@
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>86</v>
@@ -3894,12 +3900,12 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>87</v>
@@ -3908,7 +3914,7 @@
         <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>88</v>
@@ -3917,12 +3923,12 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>89</v>
@@ -3931,7 +3937,7 @@
         <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>90</v>
@@ -3940,12 +3946,12 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>91</v>
@@ -3954,7 +3960,7 @@
         <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>92</v>
@@ -3963,12 +3969,12 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>93</v>
@@ -3977,7 +3983,7 @@
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>94</v>
@@ -3986,21 +3992,21 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>96</v>
@@ -4009,12 +4015,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>97</v>
@@ -4023,7 +4029,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>98</v>
@@ -4032,21 +4038,21 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>100</v>
@@ -4055,44 +4061,44 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D156" s="2" t="s">
+      <c r="E156" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>52</v>
@@ -4101,21 +4107,21 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>54</v>
@@ -4124,21 +4130,21 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>56</v>
@@ -4147,12 +4153,12 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>57</v>
@@ -4161,7 +4167,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>58</v>
@@ -4170,12 +4176,12 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>59</v>
@@ -4184,7 +4190,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>60</v>
@@ -4193,12 +4199,12 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>61</v>
@@ -4207,7 +4213,7 @@
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>62</v>
@@ -4216,21 +4222,21 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>64</v>
@@ -4239,12 +4245,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>65</v>
@@ -4253,7 +4259,7 @@
         <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>66</v>
@@ -4262,12 +4268,12 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>67</v>
@@ -4276,7 +4282,7 @@
         <v>25</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>68</v>
@@ -4285,12 +4291,12 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>69</v>
@@ -4299,7 +4305,7 @@
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>70</v>
@@ -4308,12 +4314,12 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>71</v>
@@ -4322,7 +4328,7 @@
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>72</v>
@@ -4331,12 +4337,12 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>73</v>
@@ -4345,7 +4351,7 @@
         <v>25</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>74</v>
@@ -4354,12 +4360,12 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>75</v>
@@ -4368,7 +4374,7 @@
         <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>76</v>
@@ -4377,12 +4383,12 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>77</v>
@@ -4391,7 +4397,7 @@
         <v>25</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>78</v>
@@ -4400,12 +4406,12 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>79</v>
@@ -4414,7 +4420,7 @@
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>80</v>
@@ -4423,12 +4429,12 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>81</v>
@@ -4437,7 +4443,7 @@
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>82</v>
@@ -4446,12 +4452,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>83</v>
@@ -4460,7 +4466,7 @@
         <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>84</v>
@@ -4469,12 +4475,12 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>85</v>
@@ -4483,7 +4489,7 @@
         <v>25</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>86</v>
@@ -4492,12 +4498,12 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>87</v>
@@ -4506,7 +4512,7 @@
         <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>88</v>
@@ -4515,12 +4521,12 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>89</v>
@@ -4529,7 +4535,7 @@
         <v>25</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>90</v>
@@ -4538,12 +4544,12 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>91</v>
@@ -4552,7 +4558,7 @@
         <v>25</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>92</v>
@@ -4561,12 +4567,12 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>93</v>
@@ -4575,7 +4581,7 @@
         <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>94</v>
@@ -4584,21 +4590,21 @@
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>96</v>
@@ -4607,12 +4613,12 @@
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>97</v>
@@ -4621,7 +4627,7 @@
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>98</v>
@@ -4630,21 +4636,21 @@
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>100</v>
@@ -4653,30 +4659,30 @@
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E182" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="183">
@@ -4684,16 +4690,16 @@
         <v>125</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4704,19 +4710,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4727,16 +4733,16 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>133</v>
@@ -4750,7 +4756,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>134</v>
@@ -4759,7 +4765,7 @@
         <v>25</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>135</v>
@@ -4773,24 +4779,47 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E187" s="2" t="s">
+      <c r="C188" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="142">
   <si>
     <t>Sezione</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -484,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H188"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1013,7 +1025,7 @@
         <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>51</v>
@@ -1036,7 +1048,7 @@
         <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>51</v>
@@ -1082,7 +1094,7 @@
         <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>51</v>
@@ -1105,7 +1117,7 @@
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>51</v>
@@ -1197,7 +1209,7 @@
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>51</v>
@@ -1220,7 +1232,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>51</v>
@@ -1243,7 +1255,7 @@
         <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>51</v>
@@ -1266,7 +1278,7 @@
         <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>51</v>
@@ -1450,7 +1462,7 @@
         <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>51</v>
@@ -1473,7 +1485,7 @@
         <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>51</v>
@@ -1496,7 +1508,7 @@
         <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>51</v>
@@ -1519,7 +1531,7 @@
         <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>51</v>
@@ -1605,19 +1617,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1628,19 +1640,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1651,19 +1663,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1674,19 +1686,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1697,19 +1709,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1720,19 +1732,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1743,19 +1755,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1766,19 +1778,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1789,19 +1801,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1812,19 +1824,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1835,19 +1847,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1858,19 +1870,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1881,19 +1893,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1904,19 +1916,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1927,19 +1939,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1950,19 +1962,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1973,19 +1985,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1996,19 +2008,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2019,19 +2031,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2042,19 +2054,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2065,19 +2077,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2088,19 +2100,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2111,19 +2123,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2134,19 +2146,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2157,19 +2169,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2180,19 +2192,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2203,19 +2215,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2226,19 +2238,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2249,19 +2261,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2272,19 +2284,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2295,2531 +2307,2807 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="E184" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E188" s="2" t="s">
+      <c r="C200" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -35,6 +35,18 @@
     <t>Condizioni obbligatorieta'</t>
   </si>
   <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Allegato generico</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -44,9 +56,6 @@
     <t>SI</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -87,9 +96,6 @@
   </si>
   <si>
     <t>Data decorrenza</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>dataDecorrenza</t>
@@ -496,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -558,63 +564,63 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -623,90 +629,90 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -715,21 +721,21 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -738,12 +744,12 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
@@ -752,7 +758,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -761,21 +767,21 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -784,21 +790,21 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>36</v>
@@ -807,12 +813,12 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>37</v>
@@ -821,53 +827,53 @@
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -876,21 +882,21 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -899,21 +905,21 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -922,44 +928,44 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>54</v>
@@ -968,21 +974,21 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>56</v>
@@ -991,21 +997,21 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>58</v>
@@ -1014,21 +1020,21 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -1037,21 +1043,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -1060,12 +1066,12 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
@@ -1074,7 +1080,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1083,21 +1089,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1106,21 +1112,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1129,21 +1135,21 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1152,21 +1158,21 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1175,21 +1181,21 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1198,21 +1204,21 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1221,21 +1227,21 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1244,12 +1250,12 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
@@ -1258,7 +1264,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1267,21 +1273,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1290,21 +1296,21 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1313,21 +1319,21 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1336,21 +1342,21 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1359,21 +1365,21 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1382,21 +1388,21 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
@@ -1405,21 +1411,21 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>94</v>
@@ -1428,21 +1434,21 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>96</v>
@@ -1451,21 +1457,21 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1474,21 +1480,21 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>100</v>
@@ -1497,12 +1503,12 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>101</v>
@@ -1511,7 +1517,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>102</v>
@@ -1520,21 +1526,21 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1543,21 +1549,21 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1566,21 +1572,21 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>108</v>
@@ -1589,21 +1595,21 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>110</v>
@@ -1612,21 +1618,21 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>112</v>
@@ -1635,21 +1641,21 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>114</v>
@@ -1658,44 +1664,44 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>54</v>
@@ -1704,21 +1710,21 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>56</v>
@@ -1727,21 +1733,21 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>58</v>
@@ -1750,21 +1756,21 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>60</v>
@@ -1773,21 +1779,21 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>62</v>
@@ -1796,12 +1802,12 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>63</v>
@@ -1810,7 +1816,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>64</v>
@@ -1819,21 +1825,21 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>66</v>
@@ -1842,21 +1848,21 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>68</v>
@@ -1865,21 +1871,21 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>70</v>
@@ -1888,21 +1894,21 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>72</v>
@@ -1911,21 +1917,21 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>74</v>
@@ -1934,21 +1940,21 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>76</v>
@@ -1957,21 +1963,21 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>78</v>
@@ -1980,12 +1986,12 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>79</v>
@@ -1994,7 +2000,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>80</v>
@@ -2003,21 +2009,21 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>82</v>
@@ -2026,21 +2032,21 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>84</v>
@@ -2049,21 +2055,21 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>86</v>
@@ -2072,21 +2078,21 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>88</v>
@@ -2095,21 +2101,21 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>90</v>
@@ -2118,21 +2124,21 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>92</v>
@@ -2141,21 +2147,21 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>94</v>
@@ -2164,21 +2170,21 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>96</v>
@@ -2187,21 +2193,21 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>98</v>
@@ -2210,21 +2216,21 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>100</v>
@@ -2233,12 +2239,12 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>101</v>
@@ -2247,7 +2253,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>102</v>
@@ -2256,21 +2262,21 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>104</v>
@@ -2279,21 +2285,21 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>106</v>
@@ -2302,21 +2308,21 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>108</v>
@@ -2325,21 +2331,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>110</v>
@@ -2348,21 +2354,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>112</v>
@@ -2371,21 +2377,21 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>114</v>
@@ -2394,7 +2400,7 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
@@ -2402,36 +2408,36 @@
         <v>117</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>54</v>
@@ -2440,21 +2446,21 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>56</v>
@@ -2463,12 +2469,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>57</v>
@@ -2477,7 +2483,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>58</v>
@@ -2486,21 +2492,21 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>60</v>
@@ -2509,21 +2515,21 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>62</v>
@@ -2532,12 +2538,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>63</v>
@@ -2546,7 +2552,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>64</v>
@@ -2555,21 +2561,21 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>66</v>
@@ -2578,21 +2584,21 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>68</v>
@@ -2601,21 +2607,21 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>70</v>
@@ -2624,21 +2630,21 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>72</v>
@@ -2647,21 +2653,21 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>74</v>
@@ -2670,21 +2676,21 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>76</v>
@@ -2693,21 +2699,21 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>78</v>
@@ -2716,21 +2722,21 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>80</v>
@@ -2739,21 +2745,21 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>82</v>
@@ -2762,21 +2768,21 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>84</v>
@@ -2785,21 +2791,21 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>86</v>
@@ -2808,21 +2814,21 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>88</v>
@@ -2831,21 +2837,21 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>90</v>
@@ -2854,21 +2860,21 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>92</v>
@@ -2877,21 +2883,21 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>94</v>
@@ -2900,21 +2906,21 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>96</v>
@@ -2923,21 +2929,21 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>98</v>
@@ -2946,21 +2952,21 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>100</v>
@@ -2969,12 +2975,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>101</v>
@@ -2983,7 +2989,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>102</v>
@@ -2992,21 +2998,21 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>104</v>
@@ -3015,21 +3021,21 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>106</v>
@@ -3038,44 +3044,44 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D111" s="2" t="s">
+      <c r="E111" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>54</v>
@@ -3084,21 +3090,21 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>56</v>
@@ -3107,12 +3113,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>57</v>
@@ -3121,7 +3127,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>58</v>
@@ -3130,21 +3136,21 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>60</v>
@@ -3153,21 +3159,21 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>62</v>
@@ -3176,12 +3182,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>63</v>
@@ -3190,7 +3196,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>64</v>
@@ -3199,21 +3205,21 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>66</v>
@@ -3222,21 +3228,21 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>68</v>
@@ -3245,21 +3251,21 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>70</v>
@@ -3268,21 +3274,21 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>72</v>
@@ -3291,21 +3297,21 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>74</v>
@@ -3314,21 +3320,21 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>76</v>
@@ -3337,21 +3343,21 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>78</v>
@@ -3360,21 +3366,21 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>80</v>
@@ -3383,21 +3389,21 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>82</v>
@@ -3406,21 +3412,21 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>84</v>
@@ -3429,21 +3435,21 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>86</v>
@@ -3452,21 +3458,21 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>88</v>
@@ -3475,21 +3481,21 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>90</v>
@@ -3498,21 +3504,21 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>92</v>
@@ -3521,21 +3527,21 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>94</v>
@@ -3544,21 +3550,21 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>96</v>
@@ -3567,21 +3573,21 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>98</v>
@@ -3590,21 +3596,21 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>100</v>
@@ -3613,12 +3619,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>101</v>
@@ -3627,7 +3633,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>102</v>
@@ -3636,21 +3642,21 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>104</v>
@@ -3659,21 +3665,21 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>106</v>
@@ -3682,44 +3688,44 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D139" s="2" t="s">
+      <c r="E139" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>54</v>
@@ -3728,21 +3734,21 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>56</v>
@@ -3751,12 +3757,12 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>57</v>
@@ -3765,7 +3771,7 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>58</v>
@@ -3774,21 +3780,21 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>60</v>
@@ -3797,21 +3803,21 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>62</v>
@@ -3820,12 +3826,12 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>63</v>
@@ -3834,7 +3840,7 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>64</v>
@@ -3843,21 +3849,21 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>66</v>
@@ -3866,21 +3872,21 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>68</v>
@@ -3889,21 +3895,21 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>70</v>
@@ -3912,21 +3918,21 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>72</v>
@@ -3935,21 +3941,21 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>74</v>
@@ -3958,21 +3964,21 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>76</v>
@@ -3981,21 +3987,21 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>78</v>
@@ -4004,21 +4010,21 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>80</v>
@@ -4027,21 +4033,21 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>82</v>
@@ -4050,21 +4056,21 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>84</v>
@@ -4073,21 +4079,21 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>86</v>
@@ -4096,21 +4102,21 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>88</v>
@@ -4119,21 +4125,21 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>90</v>
@@ -4142,21 +4148,21 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>92</v>
@@ -4165,21 +4171,21 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>94</v>
@@ -4188,21 +4194,21 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>96</v>
@@ -4211,21 +4217,21 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>98</v>
@@ -4234,21 +4240,21 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>100</v>
@@ -4257,12 +4263,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>101</v>
@@ -4271,7 +4277,7 @@
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>102</v>
@@ -4280,21 +4286,21 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>104</v>
@@ -4303,21 +4309,21 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>106</v>
@@ -4326,44 +4332,44 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D167" s="2" t="s">
+      <c r="E167" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>54</v>
@@ -4372,21 +4378,21 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>56</v>
@@ -4395,12 +4401,12 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>57</v>
@@ -4409,7 +4415,7 @@
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>58</v>
@@ -4418,21 +4424,21 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>60</v>
@@ -4441,21 +4447,21 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>62</v>
@@ -4464,12 +4470,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>63</v>
@@ -4478,7 +4484,7 @@
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>64</v>
@@ -4487,21 +4493,21 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>66</v>
@@ -4510,21 +4516,21 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>68</v>
@@ -4533,21 +4539,21 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>70</v>
@@ -4556,21 +4562,21 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>72</v>
@@ -4579,21 +4585,21 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>74</v>
@@ -4602,21 +4608,21 @@
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>76</v>
@@ -4625,21 +4631,21 @@
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>78</v>
@@ -4648,21 +4654,21 @@
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>80</v>
@@ -4671,21 +4677,21 @@
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>82</v>
@@ -4694,21 +4700,21 @@
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>84</v>
@@ -4717,21 +4723,21 @@
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>86</v>
@@ -4740,21 +4746,21 @@
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>88</v>
@@ -4763,21 +4769,21 @@
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>90</v>
@@ -4786,21 +4792,21 @@
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>92</v>
@@ -4809,21 +4815,21 @@
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>94</v>
@@ -4832,21 +4838,21 @@
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>96</v>
@@ -4855,21 +4861,21 @@
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>98</v>
@@ -4878,21 +4884,21 @@
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>100</v>
@@ -4901,12 +4907,12 @@
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>101</v>
@@ -4915,7 +4921,7 @@
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>102</v>
@@ -4924,21 +4930,21 @@
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>104</v>
@@ -4947,21 +4953,21 @@
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>106</v>
@@ -4970,30 +4976,30 @@
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E195" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="196">
@@ -5001,59 +5007,59 @@
         <v>131</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="C197" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>139</v>
@@ -5062,21 +5068,21 @@
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>141</v>
@@ -5085,30 +5091,53 @@
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E200" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>16</v>
+      <c r="B201" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>idAttoCartaceo</t>
+  </si>
+  <si>
+    <t>Atto secretato</t>
+  </si>
+  <si>
+    <t>flagsecretato</t>
   </si>
   <si>
     <t>Data Evento</t>
@@ -502,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:H202"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -847,13 +853,13 @@
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -867,16 +873,16 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -890,13 +896,13 @@
         <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -919,7 +925,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -942,7 +948,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -956,19 +962,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -979,16 +985,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>56</v>
@@ -1002,16 +1008,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>58</v>
@@ -1025,7 +1031,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
@@ -1034,7 +1040,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -1048,7 +1054,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
@@ -1057,7 +1063,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -1071,7 +1077,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
@@ -1080,7 +1086,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1094,16 +1100,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1117,7 +1123,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
@@ -1126,7 +1132,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1140,7 +1146,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
@@ -1149,7 +1155,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1163,16 +1169,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1186,7 +1192,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
@@ -1195,7 +1201,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1209,7 +1215,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
@@ -1218,7 +1224,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1232,7 +1238,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
@@ -1241,7 +1247,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1255,7 +1261,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
@@ -1264,7 +1270,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1278,16 +1284,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1301,7 +1307,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
@@ -1310,7 +1316,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1324,16 +1330,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1347,7 +1353,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
@@ -1356,7 +1362,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1370,7 +1376,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
@@ -1379,7 +1385,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1393,7 +1399,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
@@ -1402,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
@@ -1416,7 +1422,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
@@ -1425,7 +1431,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>94</v>
@@ -1439,7 +1445,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>95</v>
@@ -1448,7 +1454,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>96</v>
@@ -1462,7 +1468,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>97</v>
@@ -1471,7 +1477,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1485,7 +1491,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
@@ -1494,7 +1500,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>100</v>
@@ -1508,7 +1514,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>101</v>
@@ -1517,7 +1523,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>102</v>
@@ -1531,16 +1537,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1554,7 +1560,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
@@ -1563,7 +1569,7 @@
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1577,16 +1583,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>108</v>
@@ -1600,7 +1606,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>109</v>
@@ -1609,7 +1615,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>110</v>
@@ -1623,7 +1629,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>111</v>
@@ -1632,7 +1638,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>112</v>
@@ -1646,7 +1652,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>113</v>
@@ -1655,7 +1661,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>114</v>
@@ -1669,7 +1675,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>115</v>
@@ -1678,7 +1684,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>116</v>
@@ -1692,19 +1698,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1715,16 +1721,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>56</v>
@@ -1738,16 +1744,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>58</v>
@@ -1761,7 +1767,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>59</v>
@@ -1770,7 +1776,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>60</v>
@@ -1784,7 +1790,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>61</v>
@@ -1793,7 +1799,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>62</v>
@@ -1807,7 +1813,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>63</v>
@@ -1816,7 +1822,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>64</v>
@@ -1830,16 +1836,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>66</v>
@@ -1853,7 +1859,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>67</v>
@@ -1862,7 +1868,7 @@
         <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>68</v>
@@ -1876,7 +1882,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>69</v>
@@ -1885,7 +1891,7 @@
         <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>70</v>
@@ -1899,16 +1905,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>72</v>
@@ -1922,7 +1928,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>73</v>
@@ -1931,7 +1937,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>74</v>
@@ -1945,7 +1951,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>75</v>
@@ -1954,7 +1960,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>76</v>
@@ -1968,7 +1974,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>77</v>
@@ -1977,7 +1983,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>78</v>
@@ -1991,7 +1997,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>79</v>
@@ -2000,7 +2006,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>80</v>
@@ -2014,16 +2020,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>82</v>
@@ -2037,7 +2043,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>83</v>
@@ -2046,7 +2052,7 @@
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>84</v>
@@ -2060,16 +2066,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>86</v>
@@ -2083,7 +2089,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>87</v>
@@ -2092,7 +2098,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>88</v>
@@ -2106,7 +2112,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>89</v>
@@ -2115,7 +2121,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>90</v>
@@ -2129,7 +2135,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>91</v>
@@ -2138,7 +2144,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>92</v>
@@ -2152,7 +2158,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>93</v>
@@ -2161,7 +2167,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>94</v>
@@ -2175,7 +2181,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>95</v>
@@ -2184,7 +2190,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>96</v>
@@ -2198,7 +2204,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>97</v>
@@ -2207,7 +2213,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>98</v>
@@ -2221,7 +2227,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>99</v>
@@ -2230,7 +2236,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>100</v>
@@ -2244,7 +2250,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>101</v>
@@ -2253,7 +2259,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>102</v>
@@ -2267,16 +2273,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>104</v>
@@ -2290,7 +2296,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>105</v>
@@ -2299,7 +2305,7 @@
         <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>106</v>
@@ -2313,16 +2319,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>108</v>
@@ -2336,7 +2342,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>109</v>
@@ -2345,7 +2351,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>110</v>
@@ -2359,7 +2365,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>111</v>
@@ -2368,7 +2374,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>112</v>
@@ -2382,7 +2388,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>113</v>
@@ -2391,7 +2397,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>114</v>
@@ -2405,7 +2411,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>115</v>
@@ -2414,7 +2420,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>116</v>
@@ -2431,7 +2437,7 @@
         <v>119</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2440,27 +2446,27 @@
         <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>56</v>
@@ -2469,21 +2475,21 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>58</v>
@@ -2492,21 +2498,21 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>60</v>
@@ -2515,21 +2521,21 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>62</v>
@@ -2538,12 +2544,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>63</v>
@@ -2552,7 +2558,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>64</v>
@@ -2561,21 +2567,21 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>66</v>
@@ -2584,12 +2590,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>67</v>
@@ -2598,7 +2604,7 @@
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>68</v>
@@ -2607,12 +2613,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>69</v>
@@ -2621,7 +2627,7 @@
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>70</v>
@@ -2630,21 +2636,21 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>72</v>
@@ -2653,12 +2659,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>73</v>
@@ -2667,7 +2673,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>74</v>
@@ -2676,12 +2682,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>75</v>
@@ -2690,7 +2696,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>76</v>
@@ -2699,12 +2705,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>77</v>
@@ -2713,7 +2719,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>78</v>
@@ -2722,12 +2728,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>79</v>
@@ -2736,7 +2742,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>80</v>
@@ -2745,12 +2751,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>81</v>
@@ -2759,7 +2765,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>82</v>
@@ -2768,12 +2774,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>83</v>
@@ -2782,7 +2788,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>84</v>
@@ -2791,12 +2797,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>85</v>
@@ -2805,7 +2811,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>86</v>
@@ -2814,12 +2820,12 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>87</v>
@@ -2828,7 +2834,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>88</v>
@@ -2837,12 +2843,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>89</v>
@@ -2851,7 +2857,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>90</v>
@@ -2860,12 +2866,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>91</v>
@@ -2874,7 +2880,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>92</v>
@@ -2883,12 +2889,12 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>93</v>
@@ -2897,7 +2903,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>94</v>
@@ -2906,12 +2912,12 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>95</v>
@@ -2920,7 +2926,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>96</v>
@@ -2929,12 +2935,12 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>97</v>
@@ -2943,7 +2949,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>98</v>
@@ -2952,12 +2958,12 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>99</v>
@@ -2966,7 +2972,7 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>100</v>
@@ -2975,12 +2981,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>101</v>
@@ -2989,7 +2995,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>102</v>
@@ -2998,21 +3004,21 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>104</v>
@@ -3021,12 +3027,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>105</v>
@@ -3035,7 +3041,7 @@
         <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>106</v>
@@ -3044,21 +3050,21 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>108</v>
@@ -3067,44 +3073,44 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="E112" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>56</v>
@@ -3113,21 +3119,21 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>58</v>
@@ -3136,21 +3142,21 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>60</v>
@@ -3159,21 +3165,21 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>62</v>
@@ -3182,12 +3188,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>63</v>
@@ -3196,7 +3202,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>64</v>
@@ -3205,21 +3211,21 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>66</v>
@@ -3228,12 +3234,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>67</v>
@@ -3242,7 +3248,7 @@
         <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>68</v>
@@ -3251,12 +3257,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>69</v>
@@ -3265,7 +3271,7 @@
         <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>70</v>
@@ -3274,21 +3280,21 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>72</v>
@@ -3297,12 +3303,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>73</v>
@@ -3311,7 +3317,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>74</v>
@@ -3320,12 +3326,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>75</v>
@@ -3334,7 +3340,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>76</v>
@@ -3343,12 +3349,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>77</v>
@@ -3357,7 +3363,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>78</v>
@@ -3366,12 +3372,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>79</v>
@@ -3380,7 +3386,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>80</v>
@@ -3389,12 +3395,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>81</v>
@@ -3403,7 +3409,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>82</v>
@@ -3412,12 +3418,12 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>83</v>
@@ -3426,7 +3432,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>84</v>
@@ -3435,12 +3441,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>85</v>
@@ -3449,7 +3455,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>86</v>
@@ -3458,12 +3464,12 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>87</v>
@@ -3472,7 +3478,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>88</v>
@@ -3481,12 +3487,12 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>89</v>
@@ -3495,7 +3501,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>90</v>
@@ -3504,12 +3510,12 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>91</v>
@@ -3518,7 +3524,7 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>92</v>
@@ -3527,12 +3533,12 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>93</v>
@@ -3541,7 +3547,7 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>94</v>
@@ -3550,12 +3556,12 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>95</v>
@@ -3564,7 +3570,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>96</v>
@@ -3573,12 +3579,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>97</v>
@@ -3587,7 +3593,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>98</v>
@@ -3596,12 +3602,12 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>99</v>
@@ -3610,7 +3616,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>100</v>
@@ -3619,12 +3625,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>101</v>
@@ -3633,7 +3639,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>102</v>
@@ -3642,21 +3648,21 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>104</v>
@@ -3665,12 +3671,12 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>105</v>
@@ -3679,7 +3685,7 @@
         <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>106</v>
@@ -3688,21 +3694,21 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>108</v>
@@ -3711,44 +3717,44 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
+      <c r="E140" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>56</v>
@@ -3757,21 +3763,21 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>58</v>
@@ -3780,21 +3786,21 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>60</v>
@@ -3803,21 +3809,21 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>62</v>
@@ -3826,12 +3832,12 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>63</v>
@@ -3840,7 +3846,7 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>64</v>
@@ -3849,21 +3855,21 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>66</v>
@@ -3872,12 +3878,12 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>67</v>
@@ -3886,7 +3892,7 @@
         <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>68</v>
@@ -3895,12 +3901,12 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>69</v>
@@ -3909,7 +3915,7 @@
         <v>13</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>70</v>
@@ -3918,21 +3924,21 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>72</v>
@@ -3941,12 +3947,12 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>73</v>
@@ -3955,7 +3961,7 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>74</v>
@@ -3964,12 +3970,12 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>75</v>
@@ -3978,7 +3984,7 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>76</v>
@@ -3987,12 +3993,12 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>77</v>
@@ -4001,7 +4007,7 @@
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>78</v>
@@ -4010,12 +4016,12 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>79</v>
@@ -4024,7 +4030,7 @@
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>80</v>
@@ -4033,12 +4039,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>81</v>
@@ -4047,7 +4053,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>82</v>
@@ -4056,12 +4062,12 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>83</v>
@@ -4070,7 +4076,7 @@
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>84</v>
@@ -4079,12 +4085,12 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>85</v>
@@ -4093,7 +4099,7 @@
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>86</v>
@@ -4102,12 +4108,12 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>87</v>
@@ -4116,7 +4122,7 @@
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>88</v>
@@ -4125,12 +4131,12 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>89</v>
@@ -4139,7 +4145,7 @@
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>90</v>
@@ -4148,12 +4154,12 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>91</v>
@@ -4162,7 +4168,7 @@
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>92</v>
@@ -4171,12 +4177,12 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>93</v>
@@ -4185,7 +4191,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>94</v>
@@ -4194,12 +4200,12 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>95</v>
@@ -4208,7 +4214,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>96</v>
@@ -4217,12 +4223,12 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>97</v>
@@ -4231,7 +4237,7 @@
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>98</v>
@@ -4240,12 +4246,12 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>99</v>
@@ -4254,7 +4260,7 @@
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>100</v>
@@ -4263,12 +4269,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>101</v>
@@ -4277,7 +4283,7 @@
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>102</v>
@@ -4286,21 +4292,21 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>104</v>
@@ -4309,12 +4315,12 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>105</v>
@@ -4323,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>106</v>
@@ -4332,21 +4338,21 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>108</v>
@@ -4355,44 +4361,44 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="2" t="s">
+      <c r="E168" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>56</v>
@@ -4401,21 +4407,21 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>58</v>
@@ -4424,21 +4430,21 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>60</v>
@@ -4447,21 +4453,21 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>62</v>
@@ -4470,12 +4476,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>63</v>
@@ -4484,7 +4490,7 @@
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>64</v>
@@ -4493,21 +4499,21 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>66</v>
@@ -4516,12 +4522,12 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>67</v>
@@ -4530,7 +4536,7 @@
         <v>13</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>68</v>
@@ -4539,12 +4545,12 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>69</v>
@@ -4553,7 +4559,7 @@
         <v>13</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>70</v>
@@ -4562,21 +4568,21 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>72</v>
@@ -4585,12 +4591,12 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>73</v>
@@ -4599,7 +4605,7 @@
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>74</v>
@@ -4608,12 +4614,12 @@
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>75</v>
@@ -4622,7 +4628,7 @@
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>76</v>
@@ -4631,12 +4637,12 @@
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>77</v>
@@ -4645,7 +4651,7 @@
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>78</v>
@@ -4654,12 +4660,12 @@
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>79</v>
@@ -4668,7 +4674,7 @@
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>80</v>
@@ -4677,12 +4683,12 @@
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>81</v>
@@ -4691,7 +4697,7 @@
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>82</v>
@@ -4700,12 +4706,12 @@
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>83</v>
@@ -4714,7 +4720,7 @@
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>84</v>
@@ -4723,12 +4729,12 @@
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>85</v>
@@ -4737,7 +4743,7 @@
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>86</v>
@@ -4746,12 +4752,12 @@
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>87</v>
@@ -4760,7 +4766,7 @@
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>88</v>
@@ -4769,12 +4775,12 @@
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>89</v>
@@ -4783,7 +4789,7 @@
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>90</v>
@@ -4792,12 +4798,12 @@
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>91</v>
@@ -4806,7 +4812,7 @@
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>92</v>
@@ -4815,12 +4821,12 @@
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>93</v>
@@ -4829,7 +4835,7 @@
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>94</v>
@@ -4838,12 +4844,12 @@
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>95</v>
@@ -4852,7 +4858,7 @@
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>96</v>
@@ -4861,12 +4867,12 @@
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>97</v>
@@ -4875,7 +4881,7 @@
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>98</v>
@@ -4884,12 +4890,12 @@
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>99</v>
@@ -4898,7 +4904,7 @@
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>100</v>
@@ -4907,12 +4913,12 @@
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>101</v>
@@ -4921,7 +4927,7 @@
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>102</v>
@@ -4930,21 +4936,21 @@
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>104</v>
@@ -4953,12 +4959,12 @@
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>105</v>
@@ -4967,7 +4973,7 @@
         <v>13</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>106</v>
@@ -4976,21 +4982,21 @@
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>108</v>
@@ -4999,30 +5005,30 @@
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E196" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="197">
@@ -5030,16 +5036,16 @@
         <v>133</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -5050,19 +5056,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="C198" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -5073,16 +5079,16 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>141</v>
@@ -5096,7 +5102,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>142</v>
@@ -5105,7 +5111,7 @@
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>143</v>
@@ -5119,24 +5125,47 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E201" s="2" t="s">
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F201" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G201" s="2" t="s">
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
         <v>19</v>
       </c>
     </row>
